--- a/T4A - Pêndulo.xlsx
+++ b/T4A - Pêndulo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Ambiente de Trabalho\4a - pendulo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F74CBFA-E228-4B48-915F-83D84CA2A250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5886B2E0-0068-4F3F-9127-F6C84850DFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FD070C28-706B-43D0-A779-B6A470B86684}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>Ti^2</t>
   </si>
   <si>
     <r>
@@ -246,9 +243,6 @@
   </si>
   <si>
     <t>g</t>
-  </si>
-  <si>
-    <t>_sy</t>
   </si>
   <si>
     <r>
@@ -541,6 +535,21 @@
       <t>± 0.1) s</t>
     </r>
   </si>
+  <si>
+    <t>T^2</t>
+  </si>
+  <si>
+    <t>"+sy"</t>
+  </si>
+  <si>
+    <t>"-sy"</t>
+  </si>
+  <si>
+    <t>Erro %</t>
+  </si>
+  <si>
+    <t>Fit</t>
+  </si>
 </sst>
 </file>
 
@@ -552,7 +561,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,8 +598,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,8 +624,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -673,28 +694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -732,7 +731,251 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -747,272 +990,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1023,19 +1000,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1048,19 +1020,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,10 +1029,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1082,268 +1038,193 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1424,8 +1305,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.20977376256770117"/>
-                  <c:y val="2.8189983739020548E-2"/>
+                  <c:x val="-5.1051841908439567E-2"/>
+                  <c:y val="-0.13368917700290639"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1590,6 +1471,36 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1600,31 +1511,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.5620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.5586666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.547666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.5609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.5570000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.5703333333333334</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1.4693333333333334</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1.393</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1.6363333333333332</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -2030,7 +1941,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Comprimento!$E$53</c:f>
+                <c:f>Comprimento!$E$37</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2042,7 +1953,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Comprimento!$E$53</c:f>
+                <c:f>Comprimento!$E$37</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2078,52 +1989,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="48"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.15531846596756813</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>4.3233525975754965E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>3.2303227679575726E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>6.337725207277696E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0</c:v>
+                    <c:v>9.8063032034769373E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0</c:v>
+                    <c:v>1.9770917631713524E-2</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0</c:v>
+                    <c:v>1.8116075733999367E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>0</c:v>
+                    <c:v>8.0727398985493234E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>0</c:v>
+                    <c:v>3.7545974535918611E-2</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>0</c:v>
+                    <c:v>2.7294936369359962E-2</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>0</c:v>
+                    <c:v>5.6171531463571372E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2135,52 +2031,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="48"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.15531846596756813</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>4.3233525975754965E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>3.2303227679575726E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>6.337725207277696E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0</c:v>
+                    <c:v>9.8063032034769373E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0</c:v>
+                    <c:v>1.9770917631713524E-2</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0</c:v>
+                    <c:v>1.8116075733999367E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>0</c:v>
+                    <c:v>8.0727398985493234E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>0</c:v>
+                    <c:v>3.7545974535918611E-2</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>0</c:v>
+                    <c:v>2.7294936369359962E-2</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>0</c:v>
+                    <c:v>5.6171531463571372E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2201,114 +2082,84 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Comprimento!$B$2:$B$49</c:f>
+              <c:f>Comprimento!$N$33:$N$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="0.000000">
-                  <c:v>0</c:v>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.62302000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58302000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54302000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50302000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46301999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42302000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38301999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34302000000000099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30302000000000101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26302000000000098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.223020000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comprimento!$H$2:$H$49</c:f>
+              <c:f>Comprimento!$O$33:$O$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.616845444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4004337777777773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.275069444444445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.0382321111111104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8979654444444443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7450409999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.6409610000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4384004444444445</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2380271111111112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>1.0913284444444449</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9383151111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,9 +2178,11 @@
             <c:v>sy pos</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="6350" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF8181"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2340,114 +2193,84 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comprimento!$N$33:$N$48</c:f>
+              <c:f>Comprimento!$N$33:$N$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.612375</c:v>
+                  <c:v>0.62302000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56237499999999996</c:v>
+                  <c:v>0.58302000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51237500000000002</c:v>
+                  <c:v>0.54302000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46237499999999998</c:v>
+                  <c:v>0.50302000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41237499999999999</c:v>
+                  <c:v>0.46301999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.362375</c:v>
+                  <c:v>0.42302000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31237500000000001</c:v>
+                  <c:v>0.38301999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26237500000000002</c:v>
+                  <c:v>0.34302000000000099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58737499999999998</c:v>
+                  <c:v>0.30302000000000101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53737500000000005</c:v>
+                  <c:v>0.26302000000000098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.487375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.43737500000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.38737500000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.33737499999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.28737499999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.237375</c:v>
+                  <c:v>0.223020000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comprimento!$P$33:$P$48</c:f>
+              <c:f>Comprimento!$Q$33:$Q$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.6138635730755699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.448437502368499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2830114316614276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.1175853609543567</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.9521592902472853</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.7867332195402141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.621307148833143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.455881078126076</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.2904550074190049</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.1250289367119337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.95960286600486244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2466,9 +2289,11 @@
             <c:v>sy neg</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="6350" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF8181"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2479,114 +2304,84 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comprimento!$N$33:$N$48</c:f>
+              <c:f>Comprimento!$N$33:$N$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.612375</c:v>
+                  <c:v>0.62302000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56237499999999996</c:v>
+                  <c:v>0.58302000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51237500000000002</c:v>
+                  <c:v>0.54302000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46237499999999998</c:v>
+                  <c:v>0.50302000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41237499999999999</c:v>
+                  <c:v>0.46301999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.362375</c:v>
+                  <c:v>0.42302000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31237500000000001</c:v>
+                  <c:v>0.38301999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26237500000000002</c:v>
+                  <c:v>0.34302000000000099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58737499999999998</c:v>
+                  <c:v>0.30302000000000101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53737500000000005</c:v>
+                  <c:v>0.26302000000000098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.487375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.43737500000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.38737500000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.33737499999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.28737499999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.237375</c:v>
+                  <c:v>0.223020000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comprimento!$Q$33:$Q$48</c:f>
+              <c:f>Comprimento!$R$33:$R$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.553237012783018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.387810942075947</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2223848713688756</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.0569588006618047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.8915327299547333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.7261066592476622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.560680588540591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.3952545178335241</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.2298284471264529</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.0644023764193817</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.89897630571231069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2733,7 +2528,8 @@
         <c:axId val="1988672464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.8"/>
+          <c:max val="3"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2961,52 +2757,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0" formatCode="0.000000">
-                  <c:v>0</c:v>
+                  <c:v>0.62302000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.000000">
-                  <c:v>0</c:v>
+                  <c:v>0.58302000000000009</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.000000">
-                  <c:v>0</c:v>
+                  <c:v>0.54302000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.000000">
-                  <c:v>0</c:v>
+                  <c:v>0.50302000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.000000">
-                  <c:v>0</c:v>
+                  <c:v>0.46301999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.000000">
-                  <c:v>0</c:v>
+                  <c:v>0.42302000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.000000">
-                  <c:v>0</c:v>
+                  <c:v>0.38301999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.000000">
-                  <c:v>0</c:v>
+                  <c:v>0.34302000000000099</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.000000">
-                  <c:v>0</c:v>
+                  <c:v>0.30302000000000101</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.000000">
-                  <c:v>0</c:v>
+                  <c:v>0.26302000000000098</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="0.000000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="0.000000">
-                  <c:v>0</c:v>
+                  <c:v>0.223020000000001</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.000000">
+                  <c:v>2.3019999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00">
+                  <c:v>9.5458756737960595</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00">
+                  <c:v>0.16678170530614936</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00%">
+                  <c:v>2.6626320608131016E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3018,52 +2811,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.3295151515150057E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-1.7690444444445674E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.2371292929293407E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-4.9039969696970331E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-2.3880565656565045E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-1.1378939393938303E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.9967131313133351E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1.2832646464644437E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>-2.2114616161617695E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>-3.3872121212128459E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>9.0255252525245355E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3090,6 +2868,7 @@
         <c:axId val="623805344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.65000000000000013"/>
           <c:min val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5049,15 +4828,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>237067</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>52282</xdr:rowOff>
+      <xdr:colOff>156384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>595592</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121584</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5160,25 +4939,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9910CCD2-5D73-41D5-9931-DBDCD304369F}" name="Tabela1" displayName="Tabela1" ref="N32:Q48" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="N32:Q48" xr:uid="{9910CCD2-5D73-41D5-9931-DBDCD304369F}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3D7A89E6-93CF-4C60-8F94-C99BA705ABCC}" name="L" dataDxfId="3">
-      <calculatedColumnFormula>A4</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{9D5BBBA3-90C1-4C15-BB7A-80BAB0F99FDF}" name="Ti^2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{1EE8CFED-40B7-4C21-9FF9-4F7BBCDA15AE}" name="sy" dataDxfId="1">
-      <calculatedColumnFormula>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{0C709246-F84B-49D0-8326-2FB78B765EFC}" name="_sy" dataDxfId="0">
-      <calculatedColumnFormula>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5481,7 +5241,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5492,543 +5252,680 @@
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>32</v>
+      <c r="H1" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49">
+      <c r="A2" s="32">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="38" t="e">
+      <c r="C2" s="29">
+        <v>15.82</v>
+      </c>
+      <c r="D2" s="10">
+        <v>10</v>
+      </c>
+      <c r="E2" s="17">
         <f>C2/D2</f>
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="35">
+        <f>(E2+E3+E4)/3</f>
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="H2" s="38">
+        <f>SQRT((G2-E2)^2+(G2-E3)^2+(E4-G2)^2)</f>
+        <v>5.3962950252928112E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33"/>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="69">
+        <v>15.18</v>
+      </c>
+      <c r="D3" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" ref="E3:E31" si="0">C3/D3</f>
+        <v>1.518</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34"/>
+      <c r="B4" s="22">
+        <v>3</v>
+      </c>
+      <c r="C4" s="70">
+        <v>15.86</v>
+      </c>
+      <c r="D4" s="10">
+        <v>10</v>
+      </c>
+      <c r="E4" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5859999999999999</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="71">
+        <v>15.66</v>
+      </c>
+      <c r="D5" s="10">
+        <v>10</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="35">
+        <f t="shared" ref="G5" si="1">(E5+E6+E7)/3</f>
+        <v>1.5586666666666666</v>
+      </c>
+      <c r="H5" s="38">
+        <f t="shared" ref="H5" si="2">SQRT((G5-E5)^2+(G5-E6)^2+(E7-G5)^2)</f>
+        <v>1.3366625103842239E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33"/>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="69">
+        <v>15.48</v>
+      </c>
+      <c r="D6" s="10">
+        <v>10</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
+        <v>1.548</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34"/>
+      <c r="B7" s="24">
+        <v>3</v>
+      </c>
+      <c r="C7" s="70">
+        <v>15.62</v>
+      </c>
+      <c r="D7" s="10">
+        <v>10</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5619999999999998</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="32">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1</v>
+      </c>
+      <c r="C8" s="71">
+        <v>15.98</v>
+      </c>
+      <c r="D8" s="10">
+        <v>10</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8" si="3">(E8+E9+E10)/3</f>
+        <v>1.547666666666667</v>
+      </c>
+      <c r="H8" s="38">
+        <f t="shared" ref="H8" si="4">SQRT((G8-E8)^2+(G8-E9)^2+(E10-G8)^2)</f>
+        <v>6.1746794788609706E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="33"/>
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="69">
+        <v>15.2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>10</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="0"/>
+        <v>1.52</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34"/>
+      <c r="B10" s="22">
+        <v>3</v>
+      </c>
+      <c r="C10" s="70">
+        <v>15.25</v>
+      </c>
+      <c r="D10" s="10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="32">
+        <v>8</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1</v>
+      </c>
+      <c r="C11" s="71">
+        <v>15.56</v>
+      </c>
+      <c r="D11" s="10">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
+        <v>1.556</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="35">
+        <f t="shared" ref="G11" si="5">(E11+E12+E13)/3</f>
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="H11" s="38">
+        <f t="shared" ref="H11" si="6">SQRT((G11-E11)^2+(G11-E12)^2+(E13-G11)^2)</f>
+        <v>1.6062378404209082E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33"/>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="69">
+        <v>15.74</v>
+      </c>
+      <c r="D12" s="10">
+        <v>10</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="24">
+        <v>3</v>
+      </c>
+      <c r="C13" s="70">
+        <v>15.53</v>
+      </c>
+      <c r="D13" s="10">
+        <v>10</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="32">
+        <v>10</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1</v>
+      </c>
+      <c r="C14" s="71">
+        <v>15.33</v>
+      </c>
+      <c r="D14" s="10">
+        <v>10</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="35">
+        <f t="shared" ref="G14" si="7">(E14+E15+E16)/3</f>
+        <v>1.5570000000000002</v>
+      </c>
+      <c r="H14" s="38">
+        <f t="shared" ref="H14" si="8">SQRT((G14-E14)^2+(G14-E15)^2+(E16-G14)^2)</f>
+        <v>3.0232432915662064E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33"/>
+      <c r="B15" s="13">
+        <v>2</v>
+      </c>
+      <c r="C15" s="69">
+        <v>15.64</v>
+      </c>
+      <c r="D15" s="10">
+        <v>10</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34"/>
+      <c r="B16" s="22">
+        <v>3</v>
+      </c>
+      <c r="C16" s="70">
+        <v>15.74</v>
+      </c>
+      <c r="D16" s="10">
+        <v>10</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="32">
+        <v>20</v>
+      </c>
+      <c r="B17" s="23">
+        <v>1</v>
+      </c>
+      <c r="C17" s="71">
+        <v>15.63</v>
+      </c>
+      <c r="D17" s="10">
+        <v>10</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5630000000000002</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="35">
+        <f t="shared" ref="G17" si="9">(E17+E18+E19)/3</f>
+        <v>1.5703333333333334</v>
+      </c>
+      <c r="H17" s="38">
+        <f t="shared" ref="H17" si="10">SQRT((G17-E17)^2+(G17-E18)^2+(E19-G17)^2)</f>
+        <v>9.092121131323733E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="33"/>
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="69">
+        <v>15.75</v>
+      </c>
+      <c r="D18" s="10">
+        <v>10</v>
+      </c>
+      <c r="E18" s="17">
+        <f t="shared" si="0"/>
+        <v>1.575</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="24">
+        <v>3</v>
+      </c>
+      <c r="C19" s="70">
+        <v>15.73</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="0"/>
+        <v>1.573</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="32">
+        <v>30</v>
+      </c>
+      <c r="B20" s="21">
+        <v>1</v>
+      </c>
+      <c r="C20" s="71">
+        <v>7.98</v>
+      </c>
+      <c r="D20" s="10">
+        <v>6</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="0"/>
+        <v>1.33</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="35">
+        <f t="shared" ref="G20" si="11">(E20+E21+E22)/3</f>
+        <v>1.4693333333333334</v>
+      </c>
+      <c r="H20" s="38">
+        <f t="shared" ref="H20" si="12">SQRT((G20-E20)^2+(G20-E21)^2+(E22-G20)^2)</f>
+        <v>0.17148955264582921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="33"/>
+      <c r="B21" s="13">
+        <v>2</v>
+      </c>
+      <c r="C21" s="69">
+        <v>15.27</v>
+      </c>
+      <c r="D21" s="10">
+        <v>10</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="34"/>
+      <c r="B22" s="22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="70">
+        <v>15.51</v>
+      </c>
+      <c r="D22" s="10">
+        <v>10</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="32">
+        <v>40</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="71">
+        <v>15.99</v>
+      </c>
+      <c r="D23" s="10">
+        <v>10</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="0"/>
+        <v>1.599</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="35">
+        <f t="shared" ref="G23" si="13">(E23+E24+E25)/3</f>
+        <v>1.393</v>
+      </c>
+      <c r="H23" s="38">
+        <f t="shared" ref="H23" si="14">SQRT((G23-E23)^2+(G23-E24)^2+(E25-G23)^2)</f>
+        <v>0.50214738872167797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33"/>
+      <c r="B24" s="14">
+        <v>2</v>
+      </c>
+      <c r="C24" s="69">
+        <v>9.83</v>
+      </c>
+      <c r="D24" s="10">
+        <v>10</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="0"/>
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
+      <c r="B25" s="24">
+        <v>3</v>
+      </c>
+      <c r="C25" s="70">
+        <v>15.97</v>
+      </c>
+      <c r="D25" s="10">
+        <v>10</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="0"/>
+        <v>1.597</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="32">
+        <v>50</v>
+      </c>
+      <c r="B26" s="21">
+        <v>1</v>
+      </c>
+      <c r="C26" s="71">
+        <v>16.41</v>
+      </c>
+      <c r="D26" s="10">
+        <v>10</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="0"/>
+        <v>1.641</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="35">
+        <f>(E26+E27+E28)/3</f>
+        <v>1.6363333333333332</v>
+      </c>
+      <c r="H26" s="38">
+        <f t="shared" ref="H26" si="15">SQRT((G26-E26)^2+(G26-E27)^2+(E28-G26)^2)</f>
+        <v>6.3770421565695996E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="33"/>
+      <c r="B27" s="13">
+        <v>2</v>
+      </c>
+      <c r="C27" s="69">
+        <v>16.32</v>
+      </c>
+      <c r="D27" s="10">
+        <v>10</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="0"/>
+        <v>1.6320000000000001</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="34"/>
+      <c r="B28" s="22">
+        <v>3</v>
+      </c>
+      <c r="C28" s="70">
+        <v>16.36</v>
+      </c>
+      <c r="D28" s="10">
+        <v>10</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="0"/>
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="40"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="32">
+        <v>60</v>
+      </c>
+      <c r="B29" s="23">
+        <v>1</v>
+      </c>
+      <c r="C29" s="71">
+        <v>6.77</v>
+      </c>
+      <c r="D29" s="10">
+        <v>4</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="0"/>
+        <v>1.6924999999999999</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="35" t="e">
+        <f t="shared" ref="G29" si="16">(E29+E30+E31)/3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39" t="e">
-        <f>(E2+E3+E4)/3</f>
+      <c r="H29" s="38" t="e">
+        <f t="shared" ref="H29" si="17">SQRT((G29-E29)^2+(G29-E30)^2+(E31-G29)^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="40" t="e">
-        <f>SQRT((G2-E2)^2+(G2-E3)^2+(E4-G2)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50"/>
-      <c r="B3" s="33">
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="33"/>
+      <c r="B30" s="14">
         <v>2</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="38" t="e">
-        <f t="shared" ref="E3:E31" si="0">C3/D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="41"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52">
+      <c r="C30" s="69">
+        <v>10.34</v>
+      </c>
+      <c r="D30" s="10">
+        <v>6</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="0"/>
+        <v>1.7233333333333334</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="34"/>
+      <c r="B31" s="24">
         <v>3</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="38" t="e">
+      <c r="C31" s="70"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
-      <c r="B5" s="53">
-        <v>1</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39" t="e">
-        <f t="shared" ref="G5" si="1">(E5+E6+E7)/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="40" t="e">
-        <f t="shared" ref="H5" si="2">SQRT((G5-E5)^2+(G5-E6)^2+(E7-G5)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
-      <c r="B6" s="34">
-        <v>2</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="41"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
-      <c r="B7" s="56">
-        <v>3</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49">
-        <v>1</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39" t="e">
-        <f t="shared" ref="G8" si="3">(E8+E9+E10)/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="40" t="e">
-        <f t="shared" ref="H8" si="4">SQRT((G8-E8)^2+(G8-E9)^2+(E10-G8)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
-      <c r="B9" s="33">
-        <v>2</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="41"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52">
-        <v>3</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48"/>
-      <c r="B11" s="53">
-        <v>1</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39" t="e">
-        <f t="shared" ref="G11" si="5">(E11+E12+E13)/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="40" t="e">
-        <f t="shared" ref="H11" si="6">SQRT((G11-E11)^2+(G11-E12)^2+(E13-G11)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
-      <c r="B12" s="34">
-        <v>2</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51"/>
-      <c r="B13" s="56">
-        <v>3</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49">
-        <v>1</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39" t="e">
-        <f t="shared" ref="G14" si="7">(E14+E15+E16)/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="40" t="e">
-        <f t="shared" ref="H14" si="8">SQRT((G14-E14)^2+(G14-E15)^2+(E16-G14)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50"/>
-      <c r="B15" s="33">
-        <v>2</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52">
-        <v>3</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="48"/>
-      <c r="B17" s="53">
-        <v>1</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39" t="e">
-        <f t="shared" ref="G17" si="9">(E17+E18+E19)/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="40" t="e">
-        <f t="shared" ref="H17" si="10">SQRT((G17-E17)^2+(G17-E18)^2+(E19-G17)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="50"/>
-      <c r="B18" s="34">
-        <v>2</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="51"/>
-      <c r="B19" s="56">
-        <v>3</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49">
-        <v>1</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39" t="e">
-        <f t="shared" ref="G20" si="11">(E20+E21+E22)/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="40" t="e">
-        <f t="shared" ref="H20" si="12">SQRT((G20-E20)^2+(G20-E21)^2+(E22-G20)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="50"/>
-      <c r="B21" s="33">
-        <v>2</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="41"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52">
-        <v>3</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="48"/>
-      <c r="B23" s="53">
-        <v>1</v>
-      </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39" t="e">
-        <f t="shared" ref="G23" si="13">(E23+E24+E25)/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="40" t="e">
-        <f t="shared" ref="H23" si="14">SQRT((G23-E23)^2+(G23-E24)^2+(E25-G23)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="50"/>
-      <c r="B24" s="34">
-        <v>2</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="41"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="51"/>
-      <c r="B25" s="56">
-        <v>3</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49">
-        <v>1</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39" t="e">
-        <f>(E26+E27+E28)/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="40" t="e">
-        <f t="shared" ref="H26" si="15">SQRT((G26-E26)^2+(G26-E27)^2+(E28-G26)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="50"/>
-      <c r="B27" s="33">
-        <v>2</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="41"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52">
-        <v>3</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="48"/>
-      <c r="B29" s="53">
-        <v>1</v>
-      </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39" t="e">
-        <f t="shared" ref="G29" si="16">(E29+E30+E31)/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="40" t="e">
-        <f t="shared" ref="H29" si="17">SQRT((G29-E29)^2+(G29-E30)^2+(E31-G29)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="50"/>
-      <c r="B30" s="34">
-        <v>2</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="41"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="51"/>
-      <c r="B31" s="56">
-        <v>3</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="46"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -6071,10 +5968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2A5189-853C-4BBD-8441-D179932121DF}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6087,1598 +5984,1325 @@
     <col min="6" max="6" width="9.44140625" customWidth="1"/>
     <col min="9" max="10" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.77734375" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="G1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="H1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="B2" s="41">
+        <f>A2+$B$36</f>
+        <v>0.62302000000000002</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="E2" s="17">
+        <f>D2/10</f>
+        <v>1.6239999999999999</v>
+      </c>
+      <c r="F2" s="47">
+        <f>AVERAGE(E2:E4)</f>
+        <v>1.6176666666666666</v>
+      </c>
+      <c r="G2" s="47">
+        <f>SQRT((F2-E2)^2+(F2-E3)^2+(F2-E4)^2)</f>
+        <v>4.8006943942170241E-2</v>
+      </c>
+      <c r="H2" s="47">
+        <f>F2^2</f>
+        <v>2.616845444444444</v>
+      </c>
+      <c r="I2" s="47">
+        <f>2*F2*G2</f>
+        <v>0.15531846596756813</v>
+      </c>
+      <c r="J2" s="47">
+        <f>$O$28*B2+$P$28</f>
+        <v>2.5835502929292939</v>
+      </c>
+      <c r="K2" s="50">
+        <f>H2-J2</f>
+        <v>3.3295151515150057E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="57"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="13">
+        <v>2</v>
+      </c>
+      <c r="D3" s="30">
+        <v>16.48</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" ref="E3:E49" si="0">D3/10</f>
+        <v>1.6480000000000001</v>
+      </c>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="58"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="22">
+        <v>3</v>
+      </c>
+      <c r="D4" s="31">
+        <v>15.81</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" si="0"/>
+        <v>1.581</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="56">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B5" s="41">
+        <f>A5+$B$36</f>
+        <v>0.58302000000000009</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>15.56</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" si="0"/>
+        <v>1.556</v>
+      </c>
+      <c r="F5" s="47">
+        <f>AVERAGE(E5:E7)</f>
+        <v>1.5493333333333332</v>
+      </c>
+      <c r="G5" s="47">
+        <f>SQRT((F5-E5)^2+(F5-E6)^2+(F5-E7)^2)</f>
+        <v>1.3952299690970837E-2</v>
+      </c>
+      <c r="H5" s="47">
+        <f>F5^2</f>
+        <v>2.4004337777777773</v>
+      </c>
+      <c r="I5" s="47">
+        <f>2*F5*G5</f>
+        <v>4.3233525975754965E-2</v>
+      </c>
+      <c r="J5" s="47">
+        <f>$O$28*B5+$P$28</f>
+        <v>2.418124222222223</v>
+      </c>
+      <c r="K5" s="38">
+        <f>H5-J5</f>
+        <v>-1.7690444444445674E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="59"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30">
+        <v>15.38</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
+        <v>1.538</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="60"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="24">
+        <v>3</v>
+      </c>
+      <c r="D7" s="31">
+        <v>15.54</v>
+      </c>
+      <c r="E7" s="25">
+        <f t="shared" si="0"/>
+        <v>1.5539999999999998</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="40"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="56">
+        <v>0.52</v>
+      </c>
+      <c r="B8" s="41">
+        <f>A8+$B$36</f>
+        <v>0.54302000000000006</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29">
+        <v>15.03</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="F8" s="47">
+        <f>AVERAGE(E8:E10)</f>
+        <v>1.5083333333333335</v>
+      </c>
+      <c r="G8" s="47">
+        <f>SQRT((F8-E8)^2+(F8-E9)^2+(F8-E10)^2)</f>
+        <v>1.0708252269472614E-2</v>
+      </c>
+      <c r="H8" s="47">
+        <f>F8^2</f>
+        <v>2.275069444444445</v>
+      </c>
+      <c r="I8" s="47">
+        <f>2*F8*G8</f>
+        <v>3.2303227679575726E-2</v>
+      </c>
+      <c r="J8" s="47">
+        <f>$O$28*B8+$P$28</f>
+        <v>2.2526981515151516</v>
+      </c>
+      <c r="K8" s="38">
+        <f>H8-J8</f>
+        <v>2.2371292929293407E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" s="30">
+        <v>15.05</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5050000000000001</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="60"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="22">
+        <v>3</v>
+      </c>
+      <c r="D10" s="31">
+        <v>15.17</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="0"/>
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="56">
+        <v>0.48</v>
+      </c>
+      <c r="B11" s="44">
+        <f>A11+$B$36</f>
+        <v>0.50302000000000002</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29">
+        <v>14.4</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+      <c r="F11" s="47">
+        <f>AVERAGE(E11:E13)</f>
+        <v>1.4276666666666664</v>
+      </c>
+      <c r="G11" s="47">
+        <f>SQRT((F11-E11)^2+(F11-E12)^2+(F11-E13)^2)</f>
+        <v>2.2196095752782034E-2</v>
+      </c>
+      <c r="H11" s="47">
+        <f>F11^2</f>
+        <v>2.0382321111111104</v>
+      </c>
+      <c r="I11" s="47">
+        <f>2*F11*G11</f>
+        <v>6.337725207277696E-2</v>
+      </c>
+      <c r="J11" s="47">
+        <f>$O$28*B11+$P$28</f>
+        <v>2.0872720808080807</v>
+      </c>
+      <c r="K11" s="38">
+        <f>H11-J11</f>
+        <v>-4.9039969696970331E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="57"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="14">
+        <v>2</v>
+      </c>
+      <c r="D12" s="30">
+        <v>14.1</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
+        <v>1.41</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="58"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="24">
+        <v>3</v>
+      </c>
+      <c r="D13" s="31">
+        <v>14.33</v>
+      </c>
+      <c r="E13" s="25">
+        <f t="shared" si="0"/>
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="56">
+        <v>0.44</v>
+      </c>
+      <c r="B14" s="44">
+        <f>A14+$B$36</f>
+        <v>0.46301999999999999</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="29">
+        <v>13.78</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="0"/>
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="F14" s="47">
+        <f>AVERAGE(E14:E16)</f>
+        <v>1.3776666666666666</v>
+      </c>
+      <c r="G14" s="47">
+        <f>SQRT((F14-E14)^2+(F14-E15)^2+(F14-E16)^2)</f>
+        <v>3.5590260840105024E-3</v>
+      </c>
+      <c r="H14" s="47">
+        <f>F14^2</f>
+        <v>1.8979654444444443</v>
+      </c>
+      <c r="I14" s="47">
+        <f>2*F14*G14</f>
+        <v>9.8063032034769373E-3</v>
+      </c>
+      <c r="J14" s="47">
+        <f>$O$28*B14+$P$28</f>
+        <v>1.9218460101010093</v>
+      </c>
+      <c r="K14" s="38">
+        <f>H14-J14</f>
+        <v>-2.3880565656565045E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15" s="30">
+        <v>13.8</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="0"/>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="60"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="22">
+        <v>3</v>
+      </c>
+      <c r="D16" s="31">
+        <v>13.75</v>
+      </c>
+      <c r="E16" s="25">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="56">
+        <v>0.4</v>
+      </c>
+      <c r="B17" s="44">
+        <f>A17+$B$36</f>
+        <v>0.42302000000000001</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1</v>
+      </c>
+      <c r="D17" s="29">
+        <v>13.27</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="0"/>
+        <v>1.327</v>
+      </c>
+      <c r="F17" s="47">
+        <f>AVERAGE(E17:E19)</f>
+        <v>1.321</v>
+      </c>
+      <c r="G17" s="47">
+        <f>SQRT((F17-E17)^2+(F17-E18)^2+(F17-E19)^2)</f>
+        <v>7.4833147735478894E-3</v>
+      </c>
+      <c r="H17" s="47">
+        <f>F17^2</f>
+        <v>1.7450409999999998</v>
+      </c>
+      <c r="I17" s="47">
+        <f>2*F17*G17</f>
+        <v>1.9770917631713524E-2</v>
+      </c>
+      <c r="J17" s="47">
+        <f>$O$28*B17+$P$28</f>
+        <v>1.7564199393939381</v>
+      </c>
+      <c r="K17" s="38">
+        <f>H17-J17</f>
+        <v>-1.1378939393938303E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="14">
+        <v>2</v>
+      </c>
+      <c r="D18" s="30">
+        <v>13.19</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="0"/>
+        <v>1.319</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="39"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="60"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="24">
+        <v>3</v>
+      </c>
+      <c r="D19" s="31">
+        <v>13.17</v>
+      </c>
+      <c r="E19" s="25">
+        <f t="shared" si="0"/>
+        <v>1.3169999999999999</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="56">
+        <v>0.36</v>
+      </c>
+      <c r="B20" s="44">
+        <f>A20+$B$36</f>
+        <v>0.38301999999999997</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1</v>
+      </c>
+      <c r="D20" s="29">
+        <v>12.86</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="0"/>
+        <v>1.286</v>
+      </c>
+      <c r="F20" s="47">
+        <f>AVERAGE(E20:E22)</f>
+        <v>1.2810000000000001</v>
+      </c>
+      <c r="G20" s="47">
+        <f>SQRT((F20-E20)^2+(F20-E21)^2+(F20-E22)^2)</f>
+        <v>7.0710678118654814E-3</v>
+      </c>
+      <c r="H20" s="47">
+        <f>F20^2</f>
+        <v>1.6409610000000003</v>
+      </c>
+      <c r="I20" s="47">
+        <f>2*F20*G20</f>
+        <v>1.8116075733999367E-2</v>
+      </c>
+      <c r="J20" s="47">
+        <f>$O$28*B20+$P$28</f>
+        <v>1.590993868686867</v>
+      </c>
+      <c r="K20" s="38">
+        <f>H20-J20</f>
+        <v>4.9967131313133351E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="57"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="13">
+        <v>2</v>
+      </c>
+      <c r="D21" s="30">
+        <v>12.76</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="0"/>
+        <v>1.276</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="39"/>
+    </row>
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="58"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="31">
+        <v>12.81</v>
+      </c>
+      <c r="E22" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2810000000000001</v>
+      </c>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="40"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="56">
+        <v>0.32000000000000101</v>
+      </c>
+      <c r="B23" s="44">
+        <f>A23+$B$36</f>
+        <v>0.34302000000000099</v>
+      </c>
+      <c r="C23" s="23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="29">
+        <v>11.95</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="0"/>
+        <v>1.1949999999999998</v>
+      </c>
+      <c r="F23" s="47">
+        <f>AVERAGE(E23:E25)</f>
+        <v>1.1993333333333334</v>
+      </c>
+      <c r="G23" s="47">
+        <f>SQRT((F23-E23)^2+(F23-E24)^2+(F23-E25)^2)</f>
+        <v>3.365511352924954E-2</v>
+      </c>
+      <c r="H23" s="47">
+        <f>F23^2</f>
+        <v>1.4384004444444445</v>
+      </c>
+      <c r="I23" s="47">
+        <f>2*F23*G23</f>
+        <v>8.0727398985493234E-2</v>
+      </c>
+      <c r="J23" s="47">
+        <f>$O$28*B23+$P$28</f>
+        <v>1.4255677979798</v>
+      </c>
+      <c r="K23" s="38">
+        <f>H23-J23</f>
+        <v>1.2832646464644437E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="59"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="14">
+        <v>2</v>
+      </c>
+      <c r="D24" s="30">
+        <v>12.25</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="39"/>
+    </row>
+    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="60"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="24">
+        <v>3</v>
+      </c>
+      <c r="D25" s="31">
+        <v>11.78</v>
+      </c>
+      <c r="E25" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="40"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="56">
+        <v>0.28000000000000103</v>
+      </c>
+      <c r="B26" s="44">
+        <f>A26+$B$36</f>
+        <v>0.30302000000000101</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1</v>
+      </c>
+      <c r="D26" s="29">
+        <v>11.18</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="0"/>
+        <v>1.1179999999999999</v>
+      </c>
+      <c r="F26" s="47">
+        <f>AVERAGE(E26:E28)</f>
+        <v>1.1126666666666667</v>
+      </c>
+      <c r="G26" s="47">
+        <f>SQRT((F26-E26)^2+(F26-E27)^2+(F26-E28)^2)</f>
+        <v>1.6872067646458332E-2</v>
+      </c>
+      <c r="H26" s="47">
+        <f>F26^2</f>
+        <v>1.2380271111111112</v>
+      </c>
+      <c r="I26" s="47">
+        <f>2*F26*G26</f>
+        <v>3.7545974535918611E-2</v>
+      </c>
+      <c r="J26" s="47">
+        <f>$O$28*B26+$P$28</f>
+        <v>1.2601417272727289</v>
+      </c>
+      <c r="K26" s="38">
+        <f>H26-J26</f>
+        <v>-2.2114616161617695E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="59"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="13">
+        <v>2</v>
+      </c>
+      <c r="D27" s="30">
+        <v>11.21</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" si="0"/>
+        <v>1.121</v>
+      </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="39"/>
+      <c r="N27" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
+    </row>
+    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="60"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="22">
+        <v>3</v>
+      </c>
+      <c r="D28" s="31">
+        <v>10.99</v>
+      </c>
+      <c r="E28" s="25">
+        <f t="shared" si="0"/>
+        <v>1.099</v>
+      </c>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="40"/>
+      <c r="N28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="O28" s="7">
+        <f t="array" ref="O28:P30">LINEST(O33:O43,N33:N43,1,1)</f>
+        <v>4.1356517676767783</v>
+      </c>
+      <c r="P28" s="9">
+        <v>6.9565286313073571E-3</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="56">
+        <v>0.24000000000000099</v>
+      </c>
+      <c r="B29" s="44">
+        <f>A29+$B$36</f>
+        <v>0.26302000000000098</v>
+      </c>
+      <c r="C29" s="23">
+        <v>1</v>
+      </c>
+      <c r="D29" s="29">
+        <v>10.5</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="F29" s="47">
+        <f>AVERAGE(E29:E31)</f>
+        <v>1.0446666666666669</v>
+      </c>
+      <c r="G29" s="47">
+        <f>SQRT((F29-E29)^2+(F29-E30)^2+(F29-E31)^2)</f>
+        <v>1.3063945294843629E-2</v>
+      </c>
+      <c r="H29" s="47">
+        <f>F29^2</f>
+        <v>1.0913284444444449</v>
+      </c>
+      <c r="I29" s="47">
+        <f>2*F29*G29</f>
+        <v>2.7294936369359962E-2</v>
+      </c>
+      <c r="J29" s="47">
+        <f>$O$28*B29+$P$28</f>
+        <v>1.0947156565656577</v>
+      </c>
+      <c r="K29" s="38">
+        <f>H29-J29</f>
+        <v>-3.3872121212128459E-3</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" s="3">
+        <v>7.2256446441988309E-2</v>
+      </c>
+      <c r="P29" s="4">
+        <v>3.1903158009086011E-2</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="57"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="14">
         <v>2</v>
       </c>
-      <c r="I1" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64">
-        <f>A2+$B$52</f>
+      <c r="D30" s="30">
+        <v>10.34</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="0"/>
+        <v>1.034</v>
+      </c>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="39"/>
+      <c r="N30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0.99726021630903305</v>
+      </c>
+      <c r="P30" s="3">
+        <v>3.0313280146275913E-2</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="58"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="24">
+        <v>3</v>
+      </c>
+      <c r="D31" s="31">
+        <v>10.5</v>
+      </c>
+      <c r="E31" s="25">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="40"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="56">
+        <v>0.20000000000000101</v>
+      </c>
+      <c r="B32" s="44">
+        <f>A32+$B$36</f>
+        <v>0.223020000000001</v>
+      </c>
+      <c r="C32" s="21">
+        <v>1</v>
+      </c>
+      <c r="D32" s="29">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" si="0"/>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="F32" s="47">
+        <f>AVERAGE(E32:E34)</f>
+        <v>0.96866666666666668</v>
+      </c>
+      <c r="G32" s="47">
+        <f>SQRT((F32-E32)^2+(F32-E33)^2+(F32-E34)^2)</f>
+        <v>2.8994252303976963E-2</v>
+      </c>
+      <c r="H32" s="47">
+        <f>F32^2</f>
+        <v>0.9383151111111111</v>
+      </c>
+      <c r="I32" s="47">
+        <f>2*F32*G32</f>
+        <v>5.6171531463571372E-2</v>
+      </c>
+      <c r="J32" s="47">
+        <f>$O$28*B32+$P$28</f>
+        <v>0.92928958585858656</v>
+      </c>
+      <c r="K32" s="38">
+        <f>H32-J32</f>
+        <v>9.0255252525245355E-3</v>
+      </c>
+      <c r="N32" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49">
-        <v>1</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38">
-        <f>D2/10</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="29">
-        <f>AVERAGE(E2:E4)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="29">
-        <f>SQRT((F2-E2)^2+(F2-E3)^2+(F2-E4)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <f>F2^2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="29">
-        <f>2*F2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="29">
-        <f>$O$28*B2+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="65">
-        <f>H2-J2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="33">
+      <c r="O32" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="R32" s="73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="59"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="13">
         <v>2</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="23">
-        <f t="shared" ref="E3:E49" si="0">D3/10</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="67"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="52">
+      <c r="D33" s="30">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="39"/>
+      <c r="N33" s="74">
+        <f>B2</f>
+        <v>0.62302000000000002</v>
+      </c>
+      <c r="O33" s="72">
+        <f>H2</f>
+        <v>2.616845444444444</v>
+      </c>
+      <c r="P33" s="72">
+        <f>J2</f>
+        <v>2.5835502929292939</v>
+      </c>
+      <c r="Q33" s="72">
+        <f>P33+$P$30</f>
+        <v>2.6138635730755699</v>
+      </c>
+      <c r="R33" s="72">
+        <f>P33-$P$30</f>
+        <v>2.553237012783018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="60"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="22">
         <v>3</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="57">
+      <c r="D34" s="31">
+        <v>9.81</v>
+      </c>
+      <c r="E34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64">
-        <f t="shared" ref="B5" si="1">A5+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="53">
-        <v>1</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="29">
-        <f>AVERAGE(E5:E7)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="29">
-        <f>SQRT((F5-E5)^2+(F5-E6)^2+(F5-E7)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="29">
-        <f>F5^2</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="29">
-        <f>2*F5*G5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="29">
-        <f>$O$28*B5+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="40">
-        <f>H5-J5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="34">
+        <v>0.98100000000000009</v>
+      </c>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="40"/>
+      <c r="N34" s="74">
+        <f>B5</f>
+        <v>0.58302000000000009</v>
+      </c>
+      <c r="O34" s="72">
+        <f>H5</f>
+        <v>2.4004337777777773</v>
+      </c>
+      <c r="P34" s="72">
+        <f>J5</f>
+        <v>2.418124222222223</v>
+      </c>
+      <c r="Q34" s="72">
+        <f t="shared" ref="Q34:Q43" si="1">P34+$P$30</f>
+        <v>2.448437502368499</v>
+      </c>
+      <c r="R34" s="72">
+        <f t="shared" ref="R34:R43" si="2">P34-$P$30</f>
+        <v>2.387810942075947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N35" s="74">
+        <f>B8</f>
+        <v>0.54302000000000006</v>
+      </c>
+      <c r="O35" s="72">
+        <f>H8</f>
+        <v>2.275069444444445</v>
+      </c>
+      <c r="P35" s="72">
+        <f>J8</f>
+        <v>2.2526981515151516</v>
+      </c>
+      <c r="Q35" s="72">
+        <f t="shared" si="1"/>
+        <v>2.2830114316614276</v>
+      </c>
+      <c r="R35" s="72">
+        <f t="shared" si="2"/>
+        <v>2.2223848713688756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="41"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="56">
+      <c r="B36" s="66">
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="C36" s="67"/>
+      <c r="D36" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="63">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N36" s="74">
+        <f>B11</f>
+        <v>0.50302000000000002</v>
+      </c>
+      <c r="O36" s="72">
+        <f>H11</f>
+        <v>2.0382321111111104</v>
+      </c>
+      <c r="P36" s="72">
+        <f>J11</f>
+        <v>2.0872720808080807</v>
+      </c>
+      <c r="Q36" s="72">
+        <f t="shared" si="1"/>
+        <v>2.1175853609543567</v>
+      </c>
+      <c r="R36" s="72">
+        <f t="shared" si="2"/>
+        <v>2.0569588006618047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="46"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64">
-        <f t="shared" ref="B8" si="2">A8+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="49">
-        <v>1</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="29">
-        <f>AVERAGE(E8:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="29">
-        <f>SQRT((F8-E8)^2+(F8-E9)^2+(F8-E10)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="29">
-        <f>F8^2</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="29">
-        <f>2*F8*G8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="29">
-        <f>$O$28*B8+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="40">
-        <f>H8-J8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="33">
-        <v>2</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="75"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="52">
-        <v>3</v>
-      </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="46"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
-      <c r="B11" s="76">
-        <f t="shared" ref="B11" si="3">A11+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="53">
-        <v>1</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="29">
-        <f>AVERAGE(E11:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="29">
-        <f>SQRT((F11-E11)^2+(F11-E12)^2+(F11-E13)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="29">
-        <f>F11^2</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="29">
-        <f>2*F11*G11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="29">
-        <f>$O$28*B11+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="40">
-        <f>H11-J11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="34">
-        <v>2</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="41"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="75"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="56">
-        <v>3</v>
-      </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="46"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
-      <c r="B14" s="76">
-        <f t="shared" ref="B14" si="4">A14+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="49">
-        <v>1</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="29">
-        <f>AVERAGE(E14:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="29">
-        <f>SQRT((F14-E14)^2+(F14-E15)^2+(F14-E16)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="29">
-        <f>F14^2</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="29">
-        <f>2*F14*G14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="29">
-        <f>$O$28*B14+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="40">
-        <f>H14-J14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="33">
-        <v>2</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="41"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="75"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="52">
-        <v>3</v>
-      </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="46"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
-      <c r="B17" s="76">
-        <f t="shared" ref="B17" si="5">A17+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="53">
-        <v>1</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="29">
-        <f>AVERAGE(E17:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="29">
-        <f>SQRT((F17-E17)^2+(F17-E18)^2+(F17-E19)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="29">
-        <f>F17^2</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="29">
-        <f>2*F17*G17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="29">
-        <f>$O$28*B17+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="40">
-        <f>H17-J17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="34">
-        <v>2</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="41"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="75"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="56">
-        <v>3</v>
-      </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="46"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
-      <c r="B20" s="76">
-        <f t="shared" ref="B20" si="6">A20+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="49">
-        <v>1</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="29">
-        <f>AVERAGE(E20:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="29">
-        <f>SQRT((F20-E20)^2+(F20-E21)^2+(F20-E22)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="29">
-        <f>F20^2</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="29">
-        <f>2*F20*G20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="29">
-        <f>$O$28*B20+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="40">
-        <f>H20-J20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="33">
-        <v>2</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="41"/>
-    </row>
-    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="75"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="52">
-        <v>3</v>
-      </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="46"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="73"/>
-      <c r="B23" s="76">
-        <f t="shared" ref="B23" si="7">A23+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="53">
-        <v>1</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="29">
-        <f>AVERAGE(E23:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="29">
-        <f>SQRT((F23-E23)^2+(F23-E24)^2+(F23-E25)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="29">
-        <f>F23^2</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="29">
-        <f>2*F23*G23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="29">
-        <f>$O$28*B23+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="40">
-        <f>H23-J23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="74"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="34">
-        <v>2</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="41"/>
-    </row>
-    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="75"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="56">
-        <v>3</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="46"/>
-    </row>
-    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="73"/>
-      <c r="B26" s="76">
-        <f t="shared" ref="B26" si="8">A26+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="49">
-        <v>1</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="29">
-        <f>AVERAGE(E26:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="29">
-        <f>SQRT((F26-E26)^2+(F26-E27)^2+(F26-E28)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="29">
-        <f>F26^2</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="29">
-        <f>2*F26*G26</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="29">
-        <f>$O$28*B26+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="40">
-        <f>H26-J26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="74"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="33">
-        <v>2</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="41"/>
-      <c r="N27" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="32"/>
-    </row>
-    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="75"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="52">
-        <v>3</v>
-      </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="46"/>
-      <c r="N28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O28" s="17">
-        <f t="array" ref="O28:P30">LINEST(O33:O48,N33:N48,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="73"/>
-      <c r="B29" s="76">
-        <f t="shared" ref="B29" si="9">A29+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="53">
-        <v>1</v>
-      </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="29">
-        <f>AVERAGE(E29:E31)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="29">
-        <f>SQRT((F29-E29)^2+(F29-E30)^2+(F29-E31)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="29">
-        <f>F29^2</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="29">
-        <f>2*F29*G29</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="29">
-        <f>$O$28*B29+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="40">
-        <f>H29-J29</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O29" s="8">
-        <v>0</v>
-      </c>
-      <c r="P29" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="74"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="34">
-        <v>2</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="41"/>
-      <c r="N30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O30" s="11">
-        <v>1</v>
-      </c>
-      <c r="P30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="10" t="s">
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="66">
+        <f>SQRT(E36^2+B37^2)</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N37" s="74">
+        <f>B14</f>
+        <v>0.46301999999999999</v>
+      </c>
+      <c r="O37" s="72">
+        <f>H14</f>
+        <v>1.8979654444444443</v>
+      </c>
+      <c r="P37" s="72">
+        <f>J14</f>
+        <v>1.9218460101010093</v>
+      </c>
+      <c r="Q37" s="72">
+        <f t="shared" si="1"/>
+        <v>1.9521592902472853</v>
+      </c>
+      <c r="R37" s="72">
+        <f t="shared" si="2"/>
+        <v>1.8915327299547333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="J38" s="62"/>
+      <c r="N38" s="74">
+        <f>B17</f>
+        <v>0.42302000000000001</v>
+      </c>
+      <c r="O38" s="72">
+        <f>H17</f>
+        <v>1.7450409999999998</v>
+      </c>
+      <c r="P38" s="72">
+        <f>J17</f>
+        <v>1.7564199393939381</v>
+      </c>
+      <c r="Q38" s="72">
+        <f t="shared" si="1"/>
+        <v>1.7867332195402141</v>
+      </c>
+      <c r="R38" s="72">
+        <f t="shared" si="2"/>
+        <v>1.7261066592476622</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="64">
+        <f>4*(PI())^2/O28</f>
+        <v>9.5458756737960595</v>
+      </c>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="N39" s="74">
+        <f>B20</f>
+        <v>0.38301999999999997</v>
+      </c>
+      <c r="O39" s="72">
+        <f>H20</f>
+        <v>1.6409610000000003</v>
+      </c>
+      <c r="P39" s="72">
+        <f>J20</f>
+        <v>1.590993868686867</v>
+      </c>
+      <c r="Q39" s="72">
+        <f t="shared" si="1"/>
+        <v>1.621307148833143</v>
+      </c>
+      <c r="R39" s="72">
+        <f t="shared" si="2"/>
+        <v>1.560680588540591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="65" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="75"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="56">
-        <v>3</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="46"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="73"/>
-      <c r="B32" s="76">
-        <f t="shared" ref="B32" si="10">A32+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="49">
-        <v>1</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="29">
-        <f>AVERAGE(E32:E34)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="29">
-        <f>SQRT((F32-E32)^2+(F32-E33)^2+(F32-E34)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="29">
-        <f>F32^2</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="29">
-        <f>2*F32*G32</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="29">
-        <f>$O$28*B32+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="40">
-        <f>H32-J32</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q32" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="74"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="33">
-        <v>2</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="41"/>
-      <c r="N33" s="3">
-        <v>0.612375</v>
-      </c>
-      <c r="O33" s="3">
-        <f>H2</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="75"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="52">
-        <v>3</v>
-      </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="46"/>
-      <c r="N34" s="3">
-        <v>0.56237499999999996</v>
-      </c>
-      <c r="O34" s="3">
-        <f>H5</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="73"/>
-      <c r="B35" s="76">
-        <f t="shared" ref="B35" si="11">A35+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="53">
-        <v>1</v>
-      </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="29">
-        <f>AVERAGE(E35:E37)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="29">
-        <f>SQRT((F35-E35)^2+(F35-E36)^2+(F35-E37)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="29">
-        <f>F35^2</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="29">
-        <f>2*F35*G35</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="29">
-        <f>$O$28*B35+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="40">
-        <f>H35-J35</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0.51237500000000002</v>
-      </c>
-      <c r="O35" s="3">
-        <f>H8</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="74"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="34">
-        <v>2</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="41"/>
-      <c r="N36" s="3">
-        <v>0.46237499999999998</v>
-      </c>
-      <c r="O36" s="3">
-        <f>H11</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="75"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="56">
-        <v>3</v>
-      </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="46"/>
-      <c r="N37" s="3">
-        <v>0.41237499999999999</v>
-      </c>
-      <c r="O37" s="3">
-        <f>H14</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="73"/>
-      <c r="B38" s="76">
-        <f t="shared" ref="B38" si="12">A38+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="49">
-        <v>1</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="29">
-        <f>AVERAGE(E38:E40)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="29">
-        <f>SQRT((F38-E38)^2+(F38-E39)^2+(F38-E40)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="29">
-        <f>F38^2</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="29">
-        <f>2*F38*G38</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="29">
-        <f>$O$28*B38+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="40">
-        <f>H38-J38</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0.362375</v>
-      </c>
-      <c r="O38" s="3">
-        <f>H17</f>
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="74"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="33">
-        <v>2</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="41"/>
-      <c r="N39" s="3">
-        <v>0.31237500000000001</v>
-      </c>
-      <c r="O39" s="3">
-        <f>H20</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="75"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="52">
-        <v>3</v>
-      </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="46"/>
-      <c r="N40" s="3">
-        <v>0.26237500000000002</v>
-      </c>
-      <c r="O40" s="3">
+      <c r="B40" s="64">
+        <f>4*(PI())^2/(O28^2)*O29</f>
+        <v>0.16678170530614936</v>
+      </c>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="N40" s="74">
+        <f>B23</f>
+        <v>0.34302000000000099</v>
+      </c>
+      <c r="O40" s="72">
         <f>H23</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="73"/>
-      <c r="B41" s="76">
-        <f t="shared" ref="B41" si="13">A41+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="53">
-        <v>1</v>
-      </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="29">
-        <f>AVERAGE(E41:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="29">
-        <f>SQRT((F41-E41)^2+(F41-E42)^2+(F41-E43)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="29">
-        <f>F41^2</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="29">
-        <f>2*F41*G41</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="29">
-        <f>$O$28*B41+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="40">
-        <f>H41-J41</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0.58737499999999998</v>
-      </c>
-      <c r="O41" s="3">
+        <v>1.4384004444444445</v>
+      </c>
+      <c r="P40" s="72">
+        <f>J23</f>
+        <v>1.4255677979798</v>
+      </c>
+      <c r="Q40" s="72">
+        <f t="shared" si="1"/>
+        <v>1.455881078126076</v>
+      </c>
+      <c r="R40" s="72">
+        <f t="shared" si="2"/>
+        <v>1.3952545178335241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="68">
+        <f>ABS(B39-9.807)/9.807</f>
+        <v>2.6626320608131016E-2</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="N41" s="74">
+        <f>B26</f>
+        <v>0.30302000000000101</v>
+      </c>
+      <c r="O41" s="72">
         <f>H26</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="74"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="34">
-        <v>2</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="41"/>
-      <c r="N42" s="3">
-        <v>0.53737500000000005</v>
-      </c>
-      <c r="O42" s="3">
+        <v>1.2380271111111112</v>
+      </c>
+      <c r="P41" s="72">
+        <f>J26</f>
+        <v>1.2601417272727289</v>
+      </c>
+      <c r="Q41" s="72">
+        <f t="shared" si="1"/>
+        <v>1.2904550074190049</v>
+      </c>
+      <c r="R41" s="72">
+        <f t="shared" si="2"/>
+        <v>1.2298284471264529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N42" s="74">
+        <f>B29</f>
+        <v>0.26302000000000098</v>
+      </c>
+      <c r="O42" s="72">
         <f>H29</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="75"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="56">
-        <v>3</v>
-      </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="46"/>
-      <c r="N43" s="3">
-        <v>0.487375</v>
-      </c>
-      <c r="O43" s="3">
+        <v>1.0913284444444449</v>
+      </c>
+      <c r="P42" s="72">
+        <f>J29</f>
+        <v>1.0947156565656577</v>
+      </c>
+      <c r="Q42" s="72">
+        <f t="shared" si="1"/>
+        <v>1.1250289367119337</v>
+      </c>
+      <c r="R42" s="72">
+        <f t="shared" si="2"/>
+        <v>1.0644023764193817</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N43" s="74">
+        <f>B32</f>
+        <v>0.223020000000001</v>
+      </c>
+      <c r="O43" s="72">
         <f>H32</f>
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="73"/>
-      <c r="B44" s="76">
-        <f t="shared" ref="B44" si="14">A44+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="49">
-        <v>1</v>
-      </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="29">
-        <f>AVERAGE(E44:E46)</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="29">
-        <f>SQRT((F44-E44)^2+(F44-E45)^2+(F44-E46)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="29">
-        <f>F44^2</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="29">
-        <f>2*F44*G44</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="29">
-        <f>$O$28*B44+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="40">
-        <f>H44-J44</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0.43737500000000001</v>
-      </c>
-      <c r="O44" s="3">
-        <f>H35</f>
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="74"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="33">
-        <v>2</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="41"/>
-      <c r="N45" s="3">
-        <v>0.38737500000000002</v>
-      </c>
-      <c r="O45" s="3">
-        <f>H38</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="75"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="52">
-        <v>3</v>
-      </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="46"/>
-      <c r="N46" s="3">
-        <v>0.33737499999999998</v>
-      </c>
-      <c r="O46" s="3">
-        <f>H41</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="73"/>
-      <c r="B47" s="76">
-        <f t="shared" ref="B47" si="15">A47+$B$52</f>
-        <v>0</v>
-      </c>
-      <c r="C47" s="53">
-        <v>1</v>
-      </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="29">
-        <f>AVERAGE(E47:E49)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="29">
-        <f>SQRT((F47-E47)^2+(F47-E48)^2+(F47-E49)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="29">
-        <f>F47^2</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="29">
-        <f>2*F47*G47</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="29">
-        <f>$O$28*B47+$P$28</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="40">
-        <f>H47-J47</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0.28737499999999999</v>
-      </c>
-      <c r="O47" s="3">
-        <f>H44</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="74"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="34">
-        <v>2</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="41"/>
-      <c r="N48" s="7">
-        <v>0.237375</v>
-      </c>
-      <c r="O48" s="3">
-        <f>H47</f>
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28+$P$30</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <f>$O$28*Tabela1[[#This Row],[L]]+$P$28-$P$30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="75"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="56">
-        <v>3</v>
-      </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="46"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="D53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="6">
-        <f>SQRT(E52^2+B53^2)</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="13" t="e">
-        <f>4*(PI())^2/O28</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="14" t="e">
-        <f>4*(PI())^2/(O28^2)*O29</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>0.9383151111111111</v>
+      </c>
+      <c r="P43" s="72">
+        <f>J32</f>
+        <v>0.92928958585858656</v>
+      </c>
+      <c r="Q43" s="72">
+        <f t="shared" si="1"/>
+        <v>0.95960286600486244</v>
+      </c>
+      <c r="R43" s="72">
+        <f t="shared" si="2"/>
+        <v>0.89897630571231069</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N44" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="129">
+  <mergeCells count="89">
     <mergeCell ref="N27:Q27"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="I35:I37"/>
     <mergeCell ref="I32:I34"/>
     <mergeCell ref="I29:I31"/>
     <mergeCell ref="I26:I28"/>
@@ -7689,19 +7313,13 @@
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="J44:J46"/>
     <mergeCell ref="J17:J19"/>
     <mergeCell ref="J20:J22"/>
     <mergeCell ref="J23:J25"/>
-    <mergeCell ref="I47:I49"/>
     <mergeCell ref="H17:H19"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="H8:H10"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="J47:J49"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="K8:K10"/>
@@ -7713,15 +7331,7 @@
     <mergeCell ref="K26:K28"/>
     <mergeCell ref="K29:K31"/>
     <mergeCell ref="K32:K34"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="K44:K46"/>
     <mergeCell ref="J32:J34"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H44:H46"/>
     <mergeCell ref="J26:J28"/>
     <mergeCell ref="J29:J31"/>
     <mergeCell ref="J2:J4"/>
@@ -7730,13 +7340,7 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
     <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G38:G40"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="F14:F16"/>
@@ -7753,34 +7357,21 @@
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="G20:G22"/>
     <mergeCell ref="G17:G19"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="H47:H49"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="H23:H25"/>
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="H29:H31"/>
     <mergeCell ref="H32:H34"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F47:F49"/>
     <mergeCell ref="F20:F22"/>
     <mergeCell ref="F23:F25"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="F32:F34"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -7792,21 +7383,16 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/T4A - Pêndulo.xlsx
+++ b/T4A - Pêndulo.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5886B2E0-0068-4F3F-9127-F6C84850DFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C62D9E5-95BC-4352-9749-3E42D6B9D6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FD070C28-706B-43D0-A779-B6A470B86684}"/>
   </bookViews>
   <sheets>
-    <sheet name="Amplitude" sheetId="4" r:id="rId1"/>
+    <sheet name="Amplitude e massa" sheetId="4" r:id="rId1"/>
     <sheet name="Comprimento" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>L</t>
   </si>
@@ -75,12 +75,6 @@
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>u(R)</t>
   </si>
   <si>
     <t>u(L')</t>
@@ -245,52 +239,6 @@
     <t>g</t>
   </si>
   <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>̅</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (ajuste)</t>
-    </r>
-  </si>
-  <si>
     <t>Resíduos</t>
   </si>
   <si>
@@ -425,9 +373,6 @@
     </r>
   </si>
   <si>
-    <t>Parâmetros de ajuste</t>
-  </si>
-  <si>
     <r>
       <t>T</t>
     </r>
@@ -550,6 +495,59 @@
   <si>
     <t>Fit</t>
   </si>
+  <si>
+    <t>Análise de Dados</t>
+  </si>
+  <si>
+    <t>u(m)</t>
+  </si>
+  <si>
+    <t>u(b)</t>
+  </si>
+  <si>
+    <t>r^2</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>resíduos</t>
+  </si>
+  <si>
+    <t>u(g) (%)</t>
+  </si>
+  <si>
+    <t>Análise Estatísitca</t>
+  </si>
+  <si>
+    <t>M1=31,34</t>
+  </si>
+  <si>
+    <t>M2=68,1</t>
+  </si>
+  <si>
+    <t>M3=43,18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0,01) g</t>
+    </r>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>u(h)</t>
+  </si>
 </sst>
 </file>
 
@@ -631,7 +629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -663,32 +661,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -783,17 +755,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -996,46 +957,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,142 +988,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1202,13 +1038,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1219,6 +1055,204 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1257,7 +1291,89 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>T</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="-25000"/>
+              <a:t>i</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>θ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1266,6 +1382,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>T(theta)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1290,12 +1409,11 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1305,8 +1423,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.1051841908439567E-2"/>
-                  <c:y val="-0.13368917700290639"/>
+                  <c:x val="3.9982986678855484E-2"/>
+                  <c:y val="0.11108422939068101"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1315,7 +1433,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -1328,42 +1446,24 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
-                      <a:t>T</a:t>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,0022x + 1,5356</a:t>
                     </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="-25000"/>
-                      <a:t>i</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
-                      <a:t> = 0.0023</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                        <a:effectLst/>
-                      </a:rPr>
-                      <a:t>θ</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
-                        <a:effectLst/>
-                      </a:rPr>
-                      <a:t>0</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
-                      <a:t> + 1.51</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1100"/>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -1374,7 +1474,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1435,19 +1535,79 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Amplitude!$F$2:$F$31</c:f>
+                <c:f>'Amplitude e massa'!$H$2:$H$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
+                  <c:ptCount val="29"/>
+                  <c:pt idx="0">
+                    <c:v>1.7987650084309373E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.4555417012807465E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.0582264929536569E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.3541261347363608E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.0077477638554022E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.0307070437745783E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>5.9690560082503478E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1.0987460117579112E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.1256807188565333E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1.0901229543292663E-2</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Amplitude!$F$2:$F$31</c:f>
+                <c:f>'Amplitude e massa'!$H$2:$H$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
+                  <c:ptCount val="29"/>
+                  <c:pt idx="0">
+                    <c:v>1.7987650084309373E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.4555417012807465E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.0582264929536569E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.3541261347363608E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.0077477638554022E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.0307070437745783E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>5.9690560082503478E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1.0987460117579112E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.1256807188565333E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1.0901229543292663E-2</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -1467,38 +1627,38 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Amplitude!$A$2:$A$31</c:f>
+              <c:f>'Amplitude e massa'!$R$4:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -1506,39 +1666,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Amplitude!$G$2:$G$31</c:f>
+              <c:f>'Amplitude e massa'!$S$4:$S$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.5620000000000001</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5586666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.547666666666667</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5586666666666666</c:v>
+                  <c:v>1.5609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.547666666666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5609999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5570000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5703333333333334</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.4693333333333334</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.393</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.6363333333333332</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>1.5366666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6114444444444445</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,6 +1707,240 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2AEB-47CE-B8F0-6D9D2CF54194}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>+sy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Amplitude e massa'!$R$4:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Amplitude e massa'!$V$4:$V$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5696136484134204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5739745757529737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.578335503092527</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5826964304320803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5870573577716336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6088619944694</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6306666311671665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6524712678649329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6742759045626994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6960805412604658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A87B-411C-94D9-B4F4BD20127E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>-sy+Amplitude!$T$2:$T$11</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Amplitude e massa'!$R$4:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Amplitude e massa'!$W$4:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5102957663448497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.514656693684403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5190176210239563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5233785483635096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5277394757030629</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5495441124008293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5713487490985958</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5931533857963622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6149580224941287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6367626591918951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A87B-411C-94D9-B4F4BD20127E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1656,7 +2050,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1701,8 +2095,8 @@
         <c:axId val="672310240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.7200000000000002"/>
-          <c:min val="1.5"/>
+          <c:max val="1.7500000000000002"/>
+          <c:min val="1.35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1850,10 +2244,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1891,7 +2282,568 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Resíduos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Resíduos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Amplitude e massa'!$R$4:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Amplitude e massa'!$U$4:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.2045292620864965E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4351031947978266E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0098953915747E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9625106022049863E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6015832626518076E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.2030534351146276E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.4341023466214287E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.1367882386203121E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.6169635284141197E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3578399773819498E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B66E-494E-8C74-C66A46AB0CB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="465025375"/>
+        <c:axId val="465028703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="465025375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>θ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>0</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> /°</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465028703"/>
+        <c:crossesAt val="-10000"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="465028703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Resíduos</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465025375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>T</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="30000"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>(L)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1932,7 +2884,77 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14955831396363245"/>
+                  <c:y val="6.5818002770792888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 4,1357x + 0,007</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:errBars>
             <c:errDir val="x"/>
@@ -1941,24 +2963,24 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Comprimento!$E$37</c:f>
+                <c:f>Comprimento!$D$38</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>5.0000000000000001E-4</c:v>
+                    <c:v>5.0039984012787211E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Comprimento!$E$37</c:f>
+                <c:f>Comprimento!$D$38</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>5.0000000000000001E-4</c:v>
+                    <c:v>5.0039984012787211E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1989,37 +3011,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="48"/>
                   <c:pt idx="0">
-                    <c:v>0.15531846596756813</c:v>
+                    <c:v>5.177282198918938E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.3233525975754965E-2</c:v>
+                    <c:v>1.4411175325251657E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.2303227679575726E-2</c:v>
+                    <c:v>1.0767742559858573E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>6.337725207277696E-2</c:v>
+                    <c:v>2.1125750690925652E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.8063032034769373E-3</c:v>
+                    <c:v>3.2687677344923126E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.9770917631713524E-2</c:v>
+                    <c:v>6.5903058772378426E-3</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.8116075733999367E-2</c:v>
+                    <c:v>6.0386919113331232E-3</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>8.0727398985493234E-2</c:v>
+                    <c:v>2.6909132995164415E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.7545974535918611E-2</c:v>
+                    <c:v>1.2515324845306203E-2</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>2.7294936369359962E-2</c:v>
+                    <c:v>9.0983121231199855E-3</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>5.6171531463571372E-2</c:v>
+                    <c:v>1.8723843821190456E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2031,37 +3053,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="48"/>
                   <c:pt idx="0">
-                    <c:v>0.15531846596756813</c:v>
+                    <c:v>5.177282198918938E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.3233525975754965E-2</c:v>
+                    <c:v>1.4411175325251657E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.2303227679575726E-2</c:v>
+                    <c:v>1.0767742559858573E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>6.337725207277696E-2</c:v>
+                    <c:v>2.1125750690925652E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.8063032034769373E-3</c:v>
+                    <c:v>3.2687677344923126E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.9770917631713524E-2</c:v>
+                    <c:v>6.5903058772378426E-3</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.8116075733999367E-2</c:v>
+                    <c:v>6.0386919113331232E-3</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>8.0727398985493234E-2</c:v>
+                    <c:v>2.6909132995164415E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.7545974535918611E-2</c:v>
+                    <c:v>1.2515324845306203E-2</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>2.7294936369359962E-2</c:v>
+                    <c:v>9.0983121231199855E-3</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>5.6171531463571372E-2</c:v>
+                    <c:v>1.8723843821190456E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2082,7 +3104,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Comprimento!$N$33:$N$43</c:f>
+              <c:f>Comprimento!$R$4:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2124,7 +3146,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comprimento!$O$33:$O$43</c:f>
+              <c:f>Comprimento!$S$4:$S$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2193,7 +3215,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comprimento!$N$33:$N$43</c:f>
+              <c:f>Comprimento!$R$4:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2235,7 +3257,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comprimento!$Q$33:$Q$43</c:f>
+              <c:f>Comprimento!$V$4:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2304,7 +3326,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comprimento!$N$33:$N$43</c:f>
+              <c:f>Comprimento!$R$4:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2346,7 +3368,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comprimento!$R$33:$R$43</c:f>
+              <c:f>Comprimento!$W$4:$W$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2707,7 +3729,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2721,7 +3743,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Resíduos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2730,6 +3808,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>REsíduos</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -2739,7 +3820,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="x"/>
-            <c:size val="4"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
@@ -2752,95 +3833,83 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comprimento!$B$2:$B$49</c:f>
+              <c:f>Comprimento!$R$4:$R$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0" formatCode="0.000000">
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
                   <c:v>0.62302000000000002</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.000000">
+                <c:pt idx="1">
                   <c:v>0.58302000000000009</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.000000">
+                <c:pt idx="2">
                   <c:v>0.54302000000000006</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.000000">
+                <c:pt idx="3">
                   <c:v>0.50302000000000002</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0.000000">
+                <c:pt idx="4">
                   <c:v>0.46301999999999999</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="0.000000">
+                <c:pt idx="5">
                   <c:v>0.42302000000000001</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="0.000000">
+                <c:pt idx="6">
                   <c:v>0.38301999999999997</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="0.000000">
+                <c:pt idx="7">
                   <c:v>0.34302000000000099</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="0.000000">
+                <c:pt idx="8">
                   <c:v>0.30302000000000101</c:v>
                 </c:pt>
-                <c:pt idx="27" formatCode="0.000000">
+                <c:pt idx="9">
                   <c:v>0.26302000000000098</c:v>
                 </c:pt>
-                <c:pt idx="30" formatCode="0.000000">
+                <c:pt idx="10">
                   <c:v>0.223020000000001</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0.000000">
-                  <c:v>2.3019999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0.00">
-                  <c:v>9.5458756737960595</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="0.00">
-                  <c:v>0.16678170530614936</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="0.00%">
-                  <c:v>2.6626320608131016E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comprimento!$K$2:$K$49</c:f>
+              <c:f>Comprimento!$U$4:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3.3295151515150057E-2</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7690444444445674E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2371292929293407E-2</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.7690444444445674E-2</c:v>
+                  <c:v>-4.9039969696970331E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3880565656565045E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1378939393938303E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2371292929293407E-2</c:v>
+                  <c:v>4.9967131313133351E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2832646464644437E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2114616161617695E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.9039969696970331E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.3880565656565045E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.1378939393938303E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.9967131313133351E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2832646464644437E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.2114616161617695E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>-3.3872121212128459E-3</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="10">
                   <c:v>9.0255252525245355E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3275,6 +4344,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4823,20 +5932,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>156384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88140</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66098</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>595592</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>121584</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104056</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4861,6 +6486,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>162003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>102774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4909DBC6-DCDE-E8DC-56C2-E0098A28C518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4868,16 +6529,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>435137</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162997</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>27883</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>507495</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>81267</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>533403</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>70087</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4904,16 +6565,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>286269</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>75975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>765241</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>173620</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>293914</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119741</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5238,740 +6899,1291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7850FE82-09F3-49DA-BC43-6EBE1F0F356E}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="77"/>
+    <col min="3" max="3" width="9.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="77" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="77" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="77" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="77" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="77" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="77" customWidth="1"/>
+    <col min="10" max="14" width="8.88671875" style="77"/>
+    <col min="15" max="15" width="8.88671875" style="77" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="77"/>
+    <col min="18" max="18" width="11.5546875" style="77" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" style="77" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" style="77" customWidth="1"/>
+    <col min="21" max="21" width="9.88671875" style="77" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="77" customWidth="1"/>
+    <col min="23" max="23" width="14.44140625" style="77" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" style="77" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="39">
         <v>2</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="29">
         <v>15.82</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="34">
         <v>10</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="29">
         <f>C2/D2</f>
         <v>1.5820000000000001</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="35">
+      <c r="F2" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="G2" s="42">
         <f>(E2+E3+E4)/3</f>
         <v>1.5620000000000001</v>
       </c>
-      <c r="H2" s="38">
-        <f>SQRT((G2-E2)^2+(G2-E3)^2+(E4-G2)^2)</f>
-        <v>5.3962950252928112E-2</v>
+      <c r="H2" s="68">
+        <f>_xlfn.STDEV.P(E2:E4)/SQRT(3)</f>
+        <v>1.7987650084309373E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="13">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="23">
         <v>15.18</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="32">
         <v>10</v>
       </c>
-      <c r="E3" s="17">
-        <f t="shared" ref="E3:E31" si="0">C3/D3</f>
+      <c r="E3" s="30">
+        <f t="shared" ref="E3:E30" si="0">C3/D3</f>
         <v>1.518</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="39"/>
+      <c r="F3" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="69"/>
+      <c r="T3" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="77" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
-      <c r="B4" s="22">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="41"/>
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="24">
         <v>15.86</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="33">
         <v>10</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="31">
         <f t="shared" si="0"/>
         <v>1.5859999999999999</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="40"/>
+      <c r="F4" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="70"/>
+      <c r="R4" s="77">
+        <v>2</v>
+      </c>
+      <c r="S4" s="78">
+        <f>G2</f>
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="T4" s="78">
+        <f>R4*$R$22+$S$22</f>
+        <v>1.5399547073791351</v>
+      </c>
+      <c r="U4" s="78">
+        <f>S4-T4</f>
+        <v>2.2045292620864965E-2</v>
+      </c>
+      <c r="V4" s="78">
+        <f>T4+$S$24</f>
+        <v>1.5696136484134204</v>
+      </c>
+      <c r="W4" s="78">
+        <f>T4-$S$24</f>
+        <v>1.5102957663448497</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
         <v>4</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="25">
         <v>15.66</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="34">
         <v>10</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="29">
         <f t="shared" si="0"/>
         <v>1.5660000000000001</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="35">
+      <c r="F5" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="42">
         <f t="shared" ref="G5" si="1">(E5+E6+E7)/3</f>
         <v>1.5586666666666666</v>
       </c>
-      <c r="H5" s="38">
-        <f t="shared" ref="H5" si="2">SQRT((G5-E5)^2+(G5-E6)^2+(E7-G5)^2)</f>
-        <v>1.3366625103842239E-2</v>
+      <c r="H5" s="68">
+        <f t="shared" ref="H5" si="2">_xlfn.STDEV.P(E5:E7)/SQRT(3)</f>
+        <v>4.4555417012807465E-3</v>
+      </c>
+      <c r="R5" s="77">
+        <v>4</v>
+      </c>
+      <c r="S5" s="78">
+        <f>G5</f>
+        <v>1.5586666666666666</v>
+      </c>
+      <c r="T5" s="78">
+        <f>R5*$R$22+$S$22</f>
+        <v>1.5443156347186884</v>
+      </c>
+      <c r="U5" s="78">
+        <f t="shared" ref="U5:U13" si="3">S5-T5</f>
+        <v>1.4351031947978266E-2</v>
+      </c>
+      <c r="V5" s="78">
+        <f>T5+$S$24</f>
+        <v>1.5739745757529737</v>
+      </c>
+      <c r="W5" s="78">
+        <f>T5-$S$24</f>
+        <v>1.514656693684403</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="14">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="23">
         <v>15.48</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="32">
         <v>10</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="30">
         <f t="shared" si="0"/>
         <v>1.548</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="39"/>
+      <c r="F6" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="69"/>
+      <c r="R6" s="77">
+        <v>6</v>
+      </c>
+      <c r="S6" s="78">
+        <f>G8</f>
+        <v>1.547666666666667</v>
+      </c>
+      <c r="T6" s="78">
+        <f>R6*$R$22+$S$22</f>
+        <v>1.5486765620582417</v>
+      </c>
+      <c r="U6" s="78">
+        <f t="shared" si="3"/>
+        <v>-1.0098953915747E-3</v>
+      </c>
+      <c r="V6" s="78">
+        <f>T6+$S$24</f>
+        <v>1.578335503092527</v>
+      </c>
+      <c r="W6" s="78">
+        <f>T6-$S$24</f>
+        <v>1.5190176210239563</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
-      <c r="B7" s="24">
+    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="41"/>
+      <c r="B7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="24">
         <v>15.62</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="33">
         <v>10</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="31">
         <f t="shared" si="0"/>
         <v>1.5619999999999998</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="40"/>
+      <c r="F7" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="70"/>
+      <c r="R7" s="77">
+        <v>8</v>
+      </c>
+      <c r="S7" s="78">
+        <f>G11</f>
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="T7" s="78">
+        <f>R7*$R$22+$S$22</f>
+        <v>1.553037489397795</v>
+      </c>
+      <c r="U7" s="78">
+        <f t="shared" si="3"/>
+        <v>7.9625106022049863E-3</v>
+      </c>
+      <c r="V7" s="78">
+        <f>T7+$S$24</f>
+        <v>1.5826964304320803</v>
+      </c>
+      <c r="W7" s="78">
+        <f>T7-$S$24</f>
+        <v>1.5233785483635096</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="25">
         <v>15.98</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="34">
         <v>10</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="29">
         <f t="shared" si="0"/>
         <v>1.5980000000000001</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="35">
-        <f t="shared" ref="G8" si="3">(E8+E9+E10)/3</f>
+      <c r="F8" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="G8" s="42">
+        <f t="shared" ref="G8" si="4">(E8+E9+E10)/3</f>
         <v>1.547666666666667</v>
       </c>
-      <c r="H8" s="38">
-        <f t="shared" ref="H8" si="4">SQRT((G8-E8)^2+(G8-E9)^2+(E10-G8)^2)</f>
-        <v>6.1746794788609706E-2</v>
+      <c r="H8" s="68">
+        <f t="shared" ref="H8" si="5">_xlfn.STDEV.P(E8:E10)/SQRT(3)</f>
+        <v>2.0582264929536569E-2</v>
+      </c>
+      <c r="R8" s="77">
+        <v>10</v>
+      </c>
+      <c r="S8" s="77">
+        <v>1.56</v>
+      </c>
+      <c r="T8" s="78">
+        <f>R8*$R$22+$S$22</f>
+        <v>1.5573984167373482</v>
+      </c>
+      <c r="U8" s="78">
+        <f t="shared" si="3"/>
+        <v>2.6015832626518076E-3</v>
+      </c>
+      <c r="V8" s="78">
+        <f>T8+$S$24</f>
+        <v>1.5870573577716336</v>
+      </c>
+      <c r="W8" s="78">
+        <f>T8-$S$24</f>
+        <v>1.5277394757030629</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="13">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="23">
         <v>15.2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="32">
         <v>10</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="30">
         <f t="shared" si="0"/>
         <v>1.52</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="39"/>
+      <c r="F9" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="69"/>
+      <c r="R9" s="77">
+        <v>20</v>
+      </c>
+      <c r="S9" s="77">
+        <v>1.57</v>
+      </c>
+      <c r="T9" s="78">
+        <f>R9*$R$22+$S$22</f>
+        <v>1.5792030534351147</v>
+      </c>
+      <c r="U9" s="78">
+        <f t="shared" si="3"/>
+        <v>-9.2030534351146276E-3</v>
+      </c>
+      <c r="V9" s="78">
+        <f>T9+$S$24</f>
+        <v>1.6088619944694</v>
+      </c>
+      <c r="W9" s="78">
+        <f>T9-$S$24</f>
+        <v>1.5495441124008293</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34"/>
-      <c r="B10" s="22">
+    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="41"/>
+      <c r="B10" s="9">
         <v>3</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="24">
         <v>15.25</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="33">
         <v>10</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="31">
         <f t="shared" si="0"/>
         <v>1.5249999999999999</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="40"/>
+      <c r="F10" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="70"/>
+      <c r="R10" s="77">
+        <v>30</v>
+      </c>
+      <c r="S10" s="78">
+        <f>G20</f>
+        <v>1.5366666666666668</v>
+      </c>
+      <c r="T10" s="78">
+        <f>R10*$R$22+$S$22</f>
+        <v>1.6010076901328811</v>
+      </c>
+      <c r="U10" s="78">
+        <f t="shared" si="3"/>
+        <v>-6.4341023466214287E-2</v>
+      </c>
+      <c r="V10" s="78">
+        <f>T10+$S$24</f>
+        <v>1.6306666311671665</v>
+      </c>
+      <c r="W10" s="78">
+        <f>T10-$S$24</f>
+        <v>1.5713487490985958</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
         <v>8</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="25">
         <v>15.56</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="34">
         <v>10</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="29">
         <f t="shared" si="0"/>
         <v>1.556</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="35">
-        <f t="shared" ref="G11" si="5">(E11+E12+E13)/3</f>
+      <c r="F11" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="42">
+        <f t="shared" ref="G11" si="6">(E11+E12+E13)/3</f>
         <v>1.5609999999999999</v>
       </c>
-      <c r="H11" s="38">
-        <f t="shared" ref="H11" si="6">SQRT((G11-E11)^2+(G11-E12)^2+(E13-G11)^2)</f>
-        <v>1.6062378404209082E-2</v>
+      <c r="H11" s="68">
+        <f t="shared" ref="H11" si="7">_xlfn.STDEV.P(E11:E13)/SQRT(3)</f>
+        <v>5.3541261347363608E-3</v>
+      </c>
+      <c r="R11" s="77">
+        <v>40</v>
+      </c>
+      <c r="S11" s="78">
+        <f>G23</f>
+        <v>1.6114444444444445</v>
+      </c>
+      <c r="T11" s="78">
+        <f>R11*$R$22+$S$22</f>
+        <v>1.6228123268306476</v>
+      </c>
+      <c r="U11" s="78">
+        <f t="shared" si="3"/>
+        <v>-1.1367882386203121E-2</v>
+      </c>
+      <c r="V11" s="78">
+        <f>T11+$S$24</f>
+        <v>1.6524712678649329</v>
+      </c>
+      <c r="W11" s="78">
+        <f>T11-$S$24</f>
+        <v>1.5931533857963622</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
-      <c r="B12" s="14">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="23">
         <v>15.74</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="32">
         <v>10</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="30">
         <f t="shared" si="0"/>
         <v>1.5740000000000001</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="39"/>
+      <c r="F12" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="69"/>
+      <c r="R12" s="77">
+        <v>50</v>
+      </c>
+      <c r="S12" s="77">
+        <v>1.64</v>
+      </c>
+      <c r="T12" s="78">
+        <f>R12*$R$22+$S$22</f>
+        <v>1.644616963528414</v>
+      </c>
+      <c r="U12" s="78">
+        <f t="shared" si="3"/>
+        <v>-4.6169635284141197E-3</v>
+      </c>
+      <c r="V12" s="78">
+        <f>T12+$S$24</f>
+        <v>1.6742759045626994</v>
+      </c>
+      <c r="W12" s="78">
+        <f>T12-$S$24</f>
+        <v>1.6149580224941287</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
-      <c r="B13" s="24">
+    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="41"/>
+      <c r="B13" s="11">
         <v>3</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="24">
         <v>15.53</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="33">
         <v>10</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="31">
         <f t="shared" si="0"/>
         <v>1.5529999999999999</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="40"/>
+      <c r="F13" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="70"/>
+      <c r="R13" s="77">
+        <v>60</v>
+      </c>
+      <c r="S13" s="77">
+        <v>1.71</v>
+      </c>
+      <c r="T13" s="78">
+        <f>R13*$R$22+$S$22</f>
+        <v>1.6664216002261805</v>
+      </c>
+      <c r="U13" s="78">
+        <f t="shared" si="3"/>
+        <v>4.3578399773819498E-2</v>
+      </c>
+      <c r="V13" s="78">
+        <f>T13+$S$24</f>
+        <v>1.6960805412604658</v>
+      </c>
+      <c r="W13" s="78">
+        <f>T13-$S$24</f>
+        <v>1.6367626591918951</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="39">
         <v>10</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="8">
         <v>1</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="25">
         <v>15.33</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="34">
         <v>10</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="29">
         <f t="shared" si="0"/>
         <v>1.5329999999999999</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="35">
-        <f t="shared" ref="G14" si="7">(E14+E15+E16)/3</f>
+      <c r="F14" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="G14" s="42">
+        <f t="shared" ref="G14" si="8">(E14+E15+E16)/3</f>
         <v>1.5570000000000002</v>
       </c>
-      <c r="H14" s="38">
-        <f t="shared" ref="H14" si="8">SQRT((G14-E14)^2+(G14-E15)^2+(E16-G14)^2)</f>
-        <v>3.0232432915662064E-2</v>
+      <c r="H14" s="68">
+        <f t="shared" ref="H14" si="9">_xlfn.STDEV.P(E14:E16)/SQRT(3)</f>
+        <v>1.0077477638554022E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
-      <c r="B15" s="13">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="23">
         <v>15.64</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="32">
         <v>10</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="30">
         <f t="shared" si="0"/>
         <v>1.5640000000000001</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="39"/>
+      <c r="F15" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="69"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34"/>
-      <c r="B16" s="22">
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="41"/>
+      <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="24">
         <v>15.74</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="33">
         <v>10</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="31">
         <f t="shared" si="0"/>
         <v>1.5740000000000001</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="40"/>
+      <c r="F16" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="70"/>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="39">
         <v>20</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="71">
+      <c r="C17" s="25">
         <v>15.63</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="34">
         <v>10</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="29">
         <f t="shared" si="0"/>
         <v>1.5630000000000002</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="35">
-        <f t="shared" ref="G17" si="9">(E17+E18+E19)/3</f>
+      <c r="F17" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" ref="G17" si="10">(E17+E18+E19)/3</f>
         <v>1.5703333333333334</v>
       </c>
-      <c r="H17" s="38">
-        <f t="shared" ref="H17" si="10">SQRT((G17-E17)^2+(G17-E18)^2+(E19-G17)^2)</f>
-        <v>9.092121131323733E-3</v>
+      <c r="H17" s="68">
+        <f t="shared" ref="H17" si="11">_xlfn.STDEV.P(E17:E19)/SQRT(3)</f>
+        <v>3.0307070437745783E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
-      <c r="B18" s="14">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="4">
         <v>2</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="23">
         <v>15.75</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="32">
         <v>10</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="30">
         <f t="shared" si="0"/>
         <v>1.575</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="39"/>
+      <c r="F18" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="69"/>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
-      <c r="B19" s="24">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="41"/>
+      <c r="B19" s="11">
         <v>3</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="24">
         <v>15.73</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="33">
         <v>10</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="31">
         <f t="shared" si="0"/>
         <v>1.573</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="40"/>
+      <c r="F19" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="39">
         <v>30</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="8">
         <v>1</v>
       </c>
-      <c r="C20" s="71">
-        <v>7.98</v>
-      </c>
-      <c r="D20" s="10">
-        <v>6</v>
-      </c>
-      <c r="E20" s="17">
+      <c r="C20" s="25">
+        <v>15.32</v>
+      </c>
+      <c r="D20" s="34">
+        <v>10</v>
+      </c>
+      <c r="E20" s="29">
         <f t="shared" si="0"/>
-        <v>1.33</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="35">
-        <f t="shared" ref="G20" si="11">(E20+E21+E22)/3</f>
-        <v>1.4693333333333334</v>
-      </c>
-      <c r="H20" s="38">
-        <f t="shared" ref="H20" si="12">SQRT((G20-E20)^2+(G20-E21)^2+(E22-G20)^2)</f>
-        <v>0.17148955264582921</v>
+        <v>1.532</v>
+      </c>
+      <c r="F20" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="G20" s="42">
+        <f t="shared" ref="G20" si="12">(E20+E21+E22)/3</f>
+        <v>1.5366666666666668</v>
+      </c>
+      <c r="H20" s="68">
+        <f t="shared" ref="H20" si="13">_xlfn.STDEV.P(E20:E22)/SQRT(3)</f>
+        <v>5.9690560082503478E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
-      <c r="B21" s="13">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="3">
         <v>2</v>
       </c>
-      <c r="C21" s="69">
+      <c r="C21" s="23">
         <v>15.27</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="32">
         <v>10</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="30">
         <f t="shared" si="0"/>
         <v>1.5269999999999999</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="39"/>
+      <c r="F21" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="69"/>
+      <c r="Q21" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="34"/>
-      <c r="B22" s="22">
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="41"/>
+      <c r="B22" s="9">
         <v>3</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="24">
         <v>15.51</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="33">
         <v>10</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="31">
         <f t="shared" si="0"/>
         <v>1.5509999999999999</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="40"/>
+      <c r="F22" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="70"/>
+      <c r="Q22" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="array" ref="R22:S24">LINEST(S4:S13,R4:R13,1,1)</f>
+        <v>2.1804636697766444E-3</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.5355937800395818</v>
+      </c>
+      <c r="T22" s="80" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="32">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="39">
         <v>40</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="10">
         <v>1</v>
       </c>
-      <c r="C23" s="71">
+      <c r="C23" s="25">
         <v>15.99</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="34">
         <v>10</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="29">
         <f t="shared" si="0"/>
         <v>1.599</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="35">
-        <f t="shared" ref="G23" si="13">(E23+E24+E25)/3</f>
-        <v>1.393</v>
-      </c>
-      <c r="H23" s="38">
-        <f t="shared" ref="H23" si="14">SQRT((G23-E23)^2+(G23-E24)^2+(E25-G23)^2)</f>
-        <v>0.50214738872167797</v>
+      <c r="F23" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="G23" s="42">
+        <f t="shared" ref="G23" si="14">(E23+E24+E25)/3</f>
+        <v>1.6114444444444445</v>
+      </c>
+      <c r="H23" s="68">
+        <f t="shared" ref="H23" si="15">_xlfn.STDEV.P(E23:E25)/SQRT(3)</f>
+        <v>1.0987460117579112E-2</v>
+      </c>
+      <c r="Q23" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="1">
+        <v>4.731069908085938E-4</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1.4365634939720198E-2</v>
+      </c>
+      <c r="T23" s="80" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
-      <c r="B24" s="14">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="69">
+      <c r="C24" s="23">
         <v>9.83</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="32">
+        <v>6</v>
+      </c>
+      <c r="E24" s="30">
+        <f t="shared" si="0"/>
+        <v>1.6383333333333334</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="69"/>
+      <c r="Q24" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.726413385135672</v>
+      </c>
+      <c r="S24" s="1">
+        <v>2.9658941034285329E-2</v>
+      </c>
+      <c r="T24" s="80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="41"/>
+      <c r="B25" s="11">
+        <v>3</v>
+      </c>
+      <c r="C25" s="24">
+        <v>15.97</v>
+      </c>
+      <c r="D25" s="33">
         <v>10</v>
       </c>
-      <c r="E24" s="17">
-        <f t="shared" si="0"/>
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="39"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
-      <c r="B25" s="24">
-        <v>3</v>
-      </c>
-      <c r="C25" s="70">
-        <v>15.97</v>
-      </c>
-      <c r="D25" s="10">
-        <v>10</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="E25" s="31">
         <f t="shared" si="0"/>
         <v>1.597</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="40"/>
+      <c r="F25" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="70"/>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="39">
         <v>50</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="8">
         <v>1</v>
       </c>
-      <c r="C26" s="71">
+      <c r="C26" s="25">
         <v>16.41</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="34">
         <v>10</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="29">
         <f t="shared" si="0"/>
         <v>1.641</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="35">
+      <c r="F26" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="42">
         <f>(E26+E27+E28)/3</f>
         <v>1.6363333333333332</v>
       </c>
-      <c r="H26" s="38">
-        <f t="shared" ref="H26" si="15">SQRT((G26-E26)^2+(G26-E27)^2+(E28-G26)^2)</f>
-        <v>6.3770421565695996E-3</v>
+      <c r="H26" s="68">
+        <f>_xlfn.STDEV.P(E26:E28)/SQRT(3)</f>
+        <v>2.1256807188565333E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="13">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="3">
         <v>2</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="23">
         <v>16.32</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="32">
         <v>10</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="30">
         <f t="shared" si="0"/>
         <v>1.6320000000000001</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="39"/>
+      <c r="F27" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="69"/>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="34"/>
-      <c r="B28" s="22">
+    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="41"/>
+      <c r="B28" s="9">
         <v>3</v>
       </c>
-      <c r="C28" s="70">
+      <c r="C28" s="24">
         <v>16.36</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="33">
         <v>10</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="31">
         <f t="shared" si="0"/>
         <v>1.6359999999999999</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="40"/>
+      <c r="F28" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="44"/>
+      <c r="H28" s="70"/>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32">
+    <row r="29" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="36">
         <v>60</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="10">
         <v>1</v>
       </c>
-      <c r="C29" s="71">
+      <c r="C29" s="29">
         <v>6.77</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="34">
         <v>4</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="29">
         <f t="shared" si="0"/>
         <v>1.6924999999999999</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="35" t="e">
-        <f t="shared" ref="G29" si="16">(E29+E30+E31)/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="38" t="e">
-        <f t="shared" ref="H29" si="17">SQRT((G29-E29)^2+(G29-E30)^2+(E31-G29)^2)</f>
-        <v>#DIV/0!</v>
+      <c r="F29" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="42">
+        <f>(E29+E30)/2</f>
+        <v>1.7079166666666667</v>
+      </c>
+      <c r="H29" s="68">
+        <f>_xlfn.STDEV.P(E29:E30)/SQRT(2)</f>
+        <v>1.0901229543292663E-2</v>
+      </c>
+      <c r="R29" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="U29" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="W29" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="X29" s="75" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
-      <c r="B30" s="14">
+    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="37"/>
+      <c r="B30" s="11">
         <v>2</v>
       </c>
-      <c r="C30" s="69">
+      <c r="C30" s="31">
         <v>10.34</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="33">
         <v>6</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="31">
         <f t="shared" si="0"/>
         <v>1.7233333333333334</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="39"/>
+      <c r="F30" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="44"/>
+      <c r="H30" s="70"/>
+      <c r="R30" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="S30" s="8">
+        <v>1</v>
+      </c>
+      <c r="T30" s="76">
+        <v>15.42</v>
+      </c>
+      <c r="U30" s="34">
+        <f>T30/10</f>
+        <v>1.542</v>
+      </c>
+      <c r="V30" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="W30" s="91">
+        <f>AVERAGE(U30:U32)</f>
+        <v>1.5423333333333333</v>
+      </c>
+      <c r="X30" s="85">
+        <f>_xlfn.STDEV.P(U30:U32)/SQRT(3)</f>
+        <v>2.7216552697587873E-4</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
-      <c r="B31" s="24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R31" s="83"/>
+      <c r="S31" s="3">
+        <v>2</v>
+      </c>
+      <c r="T31" s="71">
+        <v>15.43</v>
+      </c>
+      <c r="U31" s="32">
+        <f t="shared" ref="U31:U38" si="16">T31/10</f>
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="V31" s="32">
+        <v>1E-3</v>
+      </c>
+      <c r="W31" s="92"/>
+      <c r="X31" s="86"/>
+    </row>
+    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R32" s="84"/>
+      <c r="S32" s="9">
         <v>3</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="40"/>
+      <c r="T32" s="72">
+        <v>15.42</v>
+      </c>
+      <c r="U32" s="33">
+        <f t="shared" si="16"/>
+        <v>1.542</v>
+      </c>
+      <c r="V32" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="W32" s="93"/>
+      <c r="X32" s="87"/>
+    </row>
+    <row r="33" spans="18:24" x14ac:dyDescent="0.3">
+      <c r="R33" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="S33" s="10">
+        <v>1</v>
+      </c>
+      <c r="T33" s="76">
+        <v>15.42</v>
+      </c>
+      <c r="U33" s="34">
+        <f t="shared" si="16"/>
+        <v>1.542</v>
+      </c>
+      <c r="V33" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="W33" s="91">
+        <f>AVERAGE(U33:U35)</f>
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="X33" s="88">
+        <f t="shared" ref="X33" si="17">_xlfn.STDEV.P(U33:U35)/SQRT(3)</f>
+        <v>4.6427960923946885E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="18:24" x14ac:dyDescent="0.3">
+      <c r="R34" s="83"/>
+      <c r="S34" s="4">
+        <v>2</v>
+      </c>
+      <c r="T34" s="71">
+        <v>15.28</v>
+      </c>
+      <c r="U34" s="32">
+        <f t="shared" si="16"/>
+        <v>1.528</v>
+      </c>
+      <c r="V34" s="32">
+        <v>1E-3</v>
+      </c>
+      <c r="W34" s="92"/>
+      <c r="X34" s="89"/>
+    </row>
+    <row r="35" spans="18:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R35" s="84"/>
+      <c r="S35" s="11">
+        <v>3</v>
+      </c>
+      <c r="T35" s="72">
+        <v>15.23</v>
+      </c>
+      <c r="U35" s="33">
+        <f t="shared" si="16"/>
+        <v>1.5230000000000001</v>
+      </c>
+      <c r="V35" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="W35" s="93"/>
+      <c r="X35" s="90"/>
+    </row>
+    <row r="36" spans="18:24" x14ac:dyDescent="0.3">
+      <c r="R36" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="S36" s="8">
+        <v>1</v>
+      </c>
+      <c r="T36" s="76">
+        <v>15.32</v>
+      </c>
+      <c r="U36" s="34">
+        <f t="shared" si="16"/>
+        <v>1.532</v>
+      </c>
+      <c r="V36" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="W36" s="91">
+        <f>AVERAGE(U36:U38)</f>
+        <v>1.5376666666666665</v>
+      </c>
+      <c r="X36" s="88">
+        <f t="shared" ref="X36" si="18">_xlfn.STDEV.P(U36:U38)/SQRT(3)</f>
+        <v>4.2251451870736938E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="18:24" x14ac:dyDescent="0.3">
+      <c r="R37" s="83"/>
+      <c r="S37" s="3">
+        <v>2</v>
+      </c>
+      <c r="T37" s="71">
+        <v>15.33</v>
+      </c>
+      <c r="U37" s="32">
+        <f t="shared" si="16"/>
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="V37" s="32">
+        <v>1E-3</v>
+      </c>
+      <c r="W37" s="92"/>
+      <c r="X37" s="89"/>
+    </row>
+    <row r="38" spans="18:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R38" s="84"/>
+      <c r="S38" s="9">
+        <v>3</v>
+      </c>
+      <c r="T38" s="72">
+        <v>15.48</v>
+      </c>
+      <c r="U38" s="33">
+        <f t="shared" si="16"/>
+        <v>1.548</v>
+      </c>
+      <c r="V38" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="W38" s="93"/>
+      <c r="X38" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="40">
+    <mergeCell ref="X30:X32"/>
+    <mergeCell ref="X33:X35"/>
+    <mergeCell ref="X36:X38"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="R36:R38"/>
+    <mergeCell ref="W30:W32"/>
+    <mergeCell ref="W33:W35"/>
+    <mergeCell ref="W36:W38"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="H23:H25"/>
     <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H29:H31"/>
     <mergeCell ref="G20:G22"/>
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.11811023622047244" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2A5189-853C-4BBD-8441-D179932121DF}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5987,1320 +8199,1224 @@
     <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:23" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>20</v>
+      <c r="I1" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="56">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="45">
         <v>0.6</v>
       </c>
-      <c r="B2" s="41">
-        <f>A2+$B$36</f>
+      <c r="B2" s="50">
+        <f>A2+$B$37</f>
         <v>0.62302000000000002</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="29">
         <v>16.239999999999998</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="29">
         <f>D2/10</f>
         <v>1.6239999999999999</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="56">
         <f>AVERAGE(E2:E4)</f>
         <v>1.6176666666666666</v>
       </c>
-      <c r="G2" s="47">
-        <f>SQRT((F2-E2)^2+(F2-E3)^2+(F2-E4)^2)</f>
-        <v>4.8006943942170241E-2</v>
-      </c>
-      <c r="H2" s="47">
+      <c r="G2" s="56">
+        <f>_xlfn.STDEV.P(E2:E4)/SQRT(3)</f>
+        <v>1.6002314647390083E-2</v>
+      </c>
+      <c r="H2" s="56">
         <f>F2^2</f>
         <v>2.616845444444444</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="59">
         <f>2*F2*G2</f>
-        <v>0.15531846596756813</v>
-      </c>
-      <c r="J2" s="47">
-        <f>$O$28*B2+$P$28</f>
-        <v>2.5835502929292939</v>
-      </c>
-      <c r="K2" s="50">
-        <f>H2-J2</f>
-        <v>3.3295151515150057E-2</v>
+        <v>5.177282198918938E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="13">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="48"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="30">
         <v>16.48</v>
       </c>
-      <c r="E3" s="12">
-        <f t="shared" ref="E3:E49" si="0">D3/10</f>
+      <c r="E3" s="30">
+        <f t="shared" ref="E3:E34" si="0">D3/10</f>
         <v>1.6480000000000001</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="51"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="60"/>
+      <c r="R3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="22">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="9">
         <v>3</v>
       </c>
       <c r="D4" s="31">
         <v>15.81</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="31">
         <f t="shared" si="0"/>
         <v>1.581</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="52"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="61"/>
+      <c r="R4" s="28">
+        <f>B2</f>
+        <v>0.62302000000000002</v>
+      </c>
+      <c r="S4" s="26">
+        <f>H2</f>
+        <v>2.616845444444444</v>
+      </c>
+      <c r="T4" s="26">
+        <f>R4*$O$23+$P$23</f>
+        <v>2.5835502929292939</v>
+      </c>
+      <c r="U4" s="26">
+        <f>S4-T4</f>
+        <v>3.3295151515150057E-2</v>
+      </c>
+      <c r="V4" s="26">
+        <f>T4+$P$25</f>
+        <v>2.6138635730755699</v>
+      </c>
+      <c r="W4" s="26">
+        <f>T4-$P$25</f>
+        <v>2.553237012783018</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="56">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="45">
         <v>0.56000000000000005</v>
       </c>
-      <c r="B5" s="41">
-        <f>A5+$B$36</f>
+      <c r="B5" s="50">
+        <f>A5+$B$37</f>
         <v>0.58302000000000009</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
       <c r="D5" s="29">
         <v>15.56</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="29">
         <f t="shared" si="0"/>
         <v>1.556</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="56">
         <f>AVERAGE(E5:E7)</f>
         <v>1.5493333333333332</v>
       </c>
-      <c r="G5" s="47">
-        <f>SQRT((F5-E5)^2+(F5-E6)^2+(F5-E7)^2)</f>
-        <v>1.3952299690970837E-2</v>
-      </c>
-      <c r="H5" s="47">
+      <c r="G5" s="56">
+        <f t="shared" ref="G5" si="1">_xlfn.STDEV.P(E5:E7)/SQRT(3)</f>
+        <v>4.6507665636569464E-3</v>
+      </c>
+      <c r="H5" s="56">
         <f>F5^2</f>
         <v>2.4004337777777773</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="59">
         <f>2*F5*G5</f>
-        <v>4.3233525975754965E-2</v>
-      </c>
-      <c r="J5" s="47">
-        <f>$O$28*B5+$P$28</f>
+        <v>1.4411175325251657E-2</v>
+      </c>
+      <c r="R5" s="28">
+        <f>B5</f>
+        <v>0.58302000000000009</v>
+      </c>
+      <c r="S5" s="26">
+        <f>H5</f>
+        <v>2.4004337777777773</v>
+      </c>
+      <c r="T5" s="26">
+        <f>R5*$O$23+$P$23</f>
         <v>2.418124222222223</v>
       </c>
-      <c r="K5" s="38">
-        <f>H5-J5</f>
+      <c r="U5" s="26">
+        <f t="shared" ref="U5:U14" si="2">S5-T5</f>
         <v>-1.7690444444445674E-2</v>
       </c>
+      <c r="V5" s="26">
+        <f>T5+$P$25</f>
+        <v>2.448437502368499</v>
+      </c>
+      <c r="W5" s="26">
+        <f>T5-$P$25</f>
+        <v>2.387810942075947</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="14">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="30">
         <v>15.38</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="30">
         <f t="shared" si="0"/>
         <v>1.538</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="39"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="60"/>
+      <c r="R6" s="28">
+        <f>B8</f>
+        <v>0.54302000000000006</v>
+      </c>
+      <c r="S6" s="26">
+        <f>H8</f>
+        <v>2.275069444444445</v>
+      </c>
+      <c r="T6" s="26">
+        <f>R6*$O$23+$P$23</f>
+        <v>2.2526981515151516</v>
+      </c>
+      <c r="U6" s="26">
+        <f t="shared" si="2"/>
+        <v>2.2371292929293407E-2</v>
+      </c>
+      <c r="V6" s="26">
+        <f>T6+$P$25</f>
+        <v>2.2830114316614276</v>
+      </c>
+      <c r="W6" s="26">
+        <f>T6-$P$25</f>
+        <v>2.2223848713688756</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="60"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="24">
+    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="47"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="11">
         <v>3</v>
       </c>
       <c r="D7" s="31">
         <v>15.54</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="31">
         <f t="shared" si="0"/>
         <v>1.5539999999999998</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="40"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="61"/>
+      <c r="R7" s="28">
+        <f>B11</f>
+        <v>0.50302000000000002</v>
+      </c>
+      <c r="S7" s="26">
+        <f>H11</f>
+        <v>2.0382321111111104</v>
+      </c>
+      <c r="T7" s="26">
+        <f>R7*$O$23+$P$23</f>
+        <v>2.0872720808080807</v>
+      </c>
+      <c r="U7" s="26">
+        <f t="shared" si="2"/>
+        <v>-4.9039969696970331E-2</v>
+      </c>
+      <c r="V7" s="26">
+        <f>T7+$P$25</f>
+        <v>2.1175853609543567</v>
+      </c>
+      <c r="W7" s="26">
+        <f>T7-$P$25</f>
+        <v>2.0569588006618047</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="56">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="45">
         <v>0.52</v>
       </c>
-      <c r="B8" s="41">
-        <f>A8+$B$36</f>
+      <c r="B8" s="50">
+        <f>A8+$B$37</f>
         <v>0.54302000000000006</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
       <c r="D8" s="29">
         <v>15.03</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="29">
         <f t="shared" si="0"/>
         <v>1.5029999999999999</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="56">
         <f>AVERAGE(E8:E10)</f>
         <v>1.5083333333333335</v>
       </c>
-      <c r="G8" s="47">
-        <f>SQRT((F8-E8)^2+(F8-E9)^2+(F8-E10)^2)</f>
-        <v>1.0708252269472614E-2</v>
-      </c>
-      <c r="H8" s="47">
+      <c r="G8" s="56">
+        <f t="shared" ref="G8" si="3">_xlfn.STDEV.P(E8:E10)/SQRT(3)</f>
+        <v>3.5694174231575377E-3</v>
+      </c>
+      <c r="H8" s="56">
         <f>F8^2</f>
         <v>2.275069444444445</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="59">
         <f>2*F8*G8</f>
-        <v>3.2303227679575726E-2</v>
-      </c>
-      <c r="J8" s="47">
-        <f>$O$28*B8+$P$28</f>
-        <v>2.2526981515151516</v>
-      </c>
-      <c r="K8" s="38">
-        <f>H8-J8</f>
-        <v>2.2371292929293407E-2</v>
+        <v>1.0767742559858573E-2</v>
+      </c>
+      <c r="R8" s="28">
+        <f>B14</f>
+        <v>0.46301999999999999</v>
+      </c>
+      <c r="S8" s="26">
+        <f>H14</f>
+        <v>1.8979654444444443</v>
+      </c>
+      <c r="T8" s="26">
+        <f>R8*$O$23+$P$23</f>
+        <v>1.9218460101010093</v>
+      </c>
+      <c r="U8" s="26">
+        <f t="shared" si="2"/>
+        <v>-2.3880565656565045E-2</v>
+      </c>
+      <c r="V8" s="26">
+        <f>T8+$P$25</f>
+        <v>1.9521592902472853</v>
+      </c>
+      <c r="W8" s="26">
+        <f>T8-$P$25</f>
+        <v>1.8915327299547333</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="13">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="30">
         <v>15.05</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="30">
         <f t="shared" si="0"/>
         <v>1.5050000000000001</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="39"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="60"/>
+      <c r="R9" s="28">
+        <f>B17</f>
+        <v>0.42302000000000001</v>
+      </c>
+      <c r="S9" s="26">
+        <f>H17</f>
+        <v>1.7450409999999998</v>
+      </c>
+      <c r="T9" s="26">
+        <f>R9*$O$23+$P$23</f>
+        <v>1.7564199393939381</v>
+      </c>
+      <c r="U9" s="26">
+        <f t="shared" si="2"/>
+        <v>-1.1378939393938303E-2</v>
+      </c>
+      <c r="V9" s="26">
+        <f>T9+$P$25</f>
+        <v>1.7867332195402141</v>
+      </c>
+      <c r="W9" s="26">
+        <f>T9-$P$25</f>
+        <v>1.7261066592476622</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="60"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="22">
+    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="47"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="9">
         <v>3</v>
       </c>
       <c r="D10" s="31">
         <v>15.17</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="31">
         <f t="shared" si="0"/>
         <v>1.5169999999999999</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="40"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="61"/>
+      <c r="R10" s="28">
+        <f>B20</f>
+        <v>0.38301999999999997</v>
+      </c>
+      <c r="S10" s="26">
+        <f>H20</f>
+        <v>1.6409610000000003</v>
+      </c>
+      <c r="T10" s="26">
+        <f>R10*$O$23+$P$23</f>
+        <v>1.590993868686867</v>
+      </c>
+      <c r="U10" s="26">
+        <f t="shared" si="2"/>
+        <v>4.9967131313133351E-2</v>
+      </c>
+      <c r="V10" s="26">
+        <f>T10+$P$25</f>
+        <v>1.621307148833143</v>
+      </c>
+      <c r="W10" s="26">
+        <f>T10-$P$25</f>
+        <v>1.560680588540591</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="56">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="45">
         <v>0.48</v>
       </c>
-      <c r="B11" s="44">
-        <f>A11+$B$36</f>
+      <c r="B11" s="53">
+        <f>A11+$B$37</f>
         <v>0.50302000000000002</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="10">
         <v>1</v>
       </c>
       <c r="D11" s="29">
         <v>14.4</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="29">
         <f t="shared" si="0"/>
         <v>1.44</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="56">
         <f>AVERAGE(E11:E13)</f>
         <v>1.4276666666666664</v>
       </c>
-      <c r="G11" s="47">
-        <f>SQRT((F11-E11)^2+(F11-E12)^2+(F11-E13)^2)</f>
-        <v>2.2196095752782034E-2</v>
-      </c>
-      <c r="H11" s="47">
+      <c r="G11" s="56">
+        <f t="shared" ref="G11" si="4">_xlfn.STDEV.P(E11:E13)/SQRT(3)</f>
+        <v>7.3986985842606785E-3</v>
+      </c>
+      <c r="H11" s="56">
         <f>F11^2</f>
         <v>2.0382321111111104</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="59">
         <f>2*F11*G11</f>
-        <v>6.337725207277696E-2</v>
-      </c>
-      <c r="J11" s="47">
-        <f>$O$28*B11+$P$28</f>
-        <v>2.0872720808080807</v>
-      </c>
-      <c r="K11" s="38">
-        <f>H11-J11</f>
-        <v>-4.9039969696970331E-2</v>
+        <v>2.1125750690925652E-2</v>
+      </c>
+      <c r="R11" s="28">
+        <f>B23</f>
+        <v>0.34302000000000099</v>
+      </c>
+      <c r="S11" s="26">
+        <f>H23</f>
+        <v>1.4384004444444445</v>
+      </c>
+      <c r="T11" s="26">
+        <f>R11*$O$23+$P$23</f>
+        <v>1.4255677979798</v>
+      </c>
+      <c r="U11" s="26">
+        <f t="shared" si="2"/>
+        <v>1.2832646464644437E-2</v>
+      </c>
+      <c r="V11" s="26">
+        <f>T11+$P$25</f>
+        <v>1.455881078126076</v>
+      </c>
+      <c r="W11" s="26">
+        <f>T11-$P$25</f>
+        <v>1.3952545178335241</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="57"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="14">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="4">
         <v>2</v>
       </c>
       <c r="D12" s="30">
         <v>14.1</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="30">
         <f t="shared" si="0"/>
         <v>1.41</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="39"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="60"/>
+      <c r="R12" s="28">
+        <f>B26</f>
+        <v>0.30302000000000101</v>
+      </c>
+      <c r="S12" s="26">
+        <f>H26</f>
+        <v>1.2380271111111112</v>
+      </c>
+      <c r="T12" s="26">
+        <f>R12*$O$23+$P$23</f>
+        <v>1.2601417272727289</v>
+      </c>
+      <c r="U12" s="26">
+        <f t="shared" si="2"/>
+        <v>-2.2114616161617695E-2</v>
+      </c>
+      <c r="V12" s="26">
+        <f>T12+$P$25</f>
+        <v>1.2904550074190049</v>
+      </c>
+      <c r="W12" s="26">
+        <f>T12-$P$25</f>
+        <v>1.2298284471264529</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="58"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="24">
+    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="11">
         <v>3</v>
       </c>
       <c r="D13" s="31">
         <v>14.33</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="31">
         <f t="shared" si="0"/>
         <v>1.4330000000000001</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="40"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="61"/>
+      <c r="R13" s="28">
+        <f>B29</f>
+        <v>0.26302000000000098</v>
+      </c>
+      <c r="S13" s="26">
+        <f>H29</f>
+        <v>1.0913284444444449</v>
+      </c>
+      <c r="T13" s="26">
+        <f>R13*$O$23+$P$23</f>
+        <v>1.0947156565656577</v>
+      </c>
+      <c r="U13" s="26">
+        <f t="shared" si="2"/>
+        <v>-3.3872121212128459E-3</v>
+      </c>
+      <c r="V13" s="26">
+        <f>T13+$P$25</f>
+        <v>1.1250289367119337</v>
+      </c>
+      <c r="W13" s="26">
+        <f>T13-$P$25</f>
+        <v>1.0644023764193817</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="56">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="45">
         <v>0.44</v>
       </c>
-      <c r="B14" s="44">
-        <f>A14+$B$36</f>
+      <c r="B14" s="53">
+        <f>A14+$B$37</f>
         <v>0.46301999999999999</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="8">
         <v>1</v>
       </c>
       <c r="D14" s="29">
         <v>13.78</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="29">
         <f t="shared" si="0"/>
         <v>1.3779999999999999</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="56">
         <f>AVERAGE(E14:E16)</f>
         <v>1.3776666666666666</v>
       </c>
-      <c r="G14" s="47">
-        <f>SQRT((F14-E14)^2+(F14-E15)^2+(F14-E16)^2)</f>
-        <v>3.5590260840105024E-3</v>
-      </c>
-      <c r="H14" s="47">
+      <c r="G14" s="56">
+        <f t="shared" ref="G14" si="5">_xlfn.STDEV.P(E14:E16)/SQRT(3)</f>
+        <v>1.1863420280035009E-3</v>
+      </c>
+      <c r="H14" s="56">
         <f>F14^2</f>
         <v>1.8979654444444443</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="59">
         <f>2*F14*G14</f>
-        <v>9.8063032034769373E-3</v>
-      </c>
-      <c r="J14" s="47">
-        <f>$O$28*B14+$P$28</f>
-        <v>1.9218460101010093</v>
-      </c>
-      <c r="K14" s="38">
-        <f>H14-J14</f>
-        <v>-2.3880565656565045E-2</v>
+        <v>3.2687677344923126E-3</v>
+      </c>
+      <c r="R14" s="28">
+        <f>B32</f>
+        <v>0.223020000000001</v>
+      </c>
+      <c r="S14" s="26">
+        <f>H32</f>
+        <v>0.9383151111111111</v>
+      </c>
+      <c r="T14" s="26">
+        <f>R14*$O$23+$P$23</f>
+        <v>0.92928958585858656</v>
+      </c>
+      <c r="U14" s="26">
+        <f t="shared" si="2"/>
+        <v>9.0255252525245355E-3</v>
+      </c>
+      <c r="V14" s="26">
+        <f>T14+$P$25</f>
+        <v>0.95960286600486244</v>
+      </c>
+      <c r="W14" s="26">
+        <f>T14-$P$25</f>
+        <v>0.89897630571231069</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="13">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="30">
         <v>13.8</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="30">
         <f t="shared" si="0"/>
         <v>1.3800000000000001</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="39"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="60"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="22">
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="47"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="9">
         <v>3</v>
       </c>
       <c r="D16" s="31">
         <v>13.75</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="31">
         <f t="shared" si="0"/>
         <v>1.375</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="40"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="61"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="56">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="45">
         <v>0.4</v>
       </c>
-      <c r="B17" s="44">
-        <f>A17+$B$36</f>
+      <c r="B17" s="53">
+        <f>A17+$B$37</f>
         <v>0.42302000000000001</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="10">
         <v>1</v>
       </c>
       <c r="D17" s="29">
         <v>13.27</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="29">
         <f t="shared" si="0"/>
         <v>1.327</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="56">
         <f>AVERAGE(E17:E19)</f>
         <v>1.321</v>
       </c>
-      <c r="G17" s="47">
-        <f>SQRT((F17-E17)^2+(F17-E18)^2+(F17-E19)^2)</f>
-        <v>7.4833147735478894E-3</v>
-      </c>
-      <c r="H17" s="47">
+      <c r="G17" s="56">
+        <f t="shared" ref="G17" si="6">_xlfn.STDEV.P(E17:E19)/SQRT(3)</f>
+        <v>2.4944382578492969E-3</v>
+      </c>
+      <c r="H17" s="56">
         <f>F17^2</f>
         <v>1.7450409999999998</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="59">
         <f>2*F17*G17</f>
-        <v>1.9770917631713524E-2</v>
-      </c>
-      <c r="J17" s="47">
-        <f>$O$28*B17+$P$28</f>
-        <v>1.7564199393939381</v>
-      </c>
-      <c r="K17" s="38">
-        <f>H17-J17</f>
-        <v>-1.1378939393938303E-2</v>
+        <v>6.5903058772378426E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="14">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="4">
         <v>2</v>
       </c>
       <c r="D18" s="30">
         <v>13.19</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="30">
         <f t="shared" si="0"/>
         <v>1.319</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="39"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="60"/>
     </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="60"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="24">
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="47"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="11">
         <v>3</v>
       </c>
       <c r="D19" s="31">
         <v>13.17</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="31">
         <f t="shared" si="0"/>
         <v>1.3169999999999999</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="40"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="61"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="56">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="45">
         <v>0.36</v>
       </c>
-      <c r="B20" s="44">
-        <f>A20+$B$36</f>
+      <c r="B20" s="53">
+        <f>A20+$B$37</f>
         <v>0.38301999999999997</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="8">
         <v>1</v>
       </c>
       <c r="D20" s="29">
         <v>12.86</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="29">
         <f t="shared" si="0"/>
         <v>1.286</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="56">
         <f>AVERAGE(E20:E22)</f>
         <v>1.2810000000000001</v>
       </c>
-      <c r="G20" s="47">
-        <f>SQRT((F20-E20)^2+(F20-E21)^2+(F20-E22)^2)</f>
-        <v>7.0710678118654814E-3</v>
-      </c>
-      <c r="H20" s="47">
+      <c r="G20" s="56">
+        <f t="shared" ref="G20" si="7">_xlfn.STDEV.P(E20:E22)/SQRT(3)</f>
+        <v>2.3570226039551609E-3</v>
+      </c>
+      <c r="H20" s="56">
         <f>F20^2</f>
         <v>1.6409610000000003</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="59">
         <f>2*F20*G20</f>
-        <v>1.8116075733999367E-2</v>
-      </c>
-      <c r="J20" s="47">
-        <f>$O$28*B20+$P$28</f>
-        <v>1.590993868686867</v>
-      </c>
-      <c r="K20" s="38">
-        <f>H20-J20</f>
-        <v>4.9967131313133351E-2</v>
+        <v>6.0386919113331232E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="13">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="30">
         <v>12.76</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="30">
         <f t="shared" si="0"/>
         <v>1.276</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="39"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="60"/>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="58"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="22">
+    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="9">
         <v>3</v>
       </c>
       <c r="D22" s="31">
         <v>12.81</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="31">
         <f t="shared" si="0"/>
         <v>1.2810000000000001</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="40"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="61"/>
+      <c r="N22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="56">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="45">
         <v>0.32000000000000101</v>
       </c>
-      <c r="B23" s="44">
-        <f>A23+$B$36</f>
+      <c r="B23" s="53">
+        <f>A23+$B$37</f>
         <v>0.34302000000000099</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="10">
         <v>1</v>
       </c>
       <c r="D23" s="29">
         <v>11.95</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="29">
         <f t="shared" si="0"/>
         <v>1.1949999999999998</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="56">
         <f>AVERAGE(E23:E25)</f>
         <v>1.1993333333333334</v>
       </c>
-      <c r="G23" s="47">
-        <f>SQRT((F23-E23)^2+(F23-E24)^2+(F23-E25)^2)</f>
-        <v>3.365511352924954E-2</v>
-      </c>
-      <c r="H23" s="47">
+      <c r="G23" s="56">
+        <f t="shared" ref="G23" si="8">_xlfn.STDEV.P(E23:E25)/SQRT(3)</f>
+        <v>1.1218371176416515E-2</v>
+      </c>
+      <c r="H23" s="56">
         <f>F23^2</f>
         <v>1.4384004444444445</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="59">
         <f>2*F23*G23</f>
-        <v>8.0727398985493234E-2</v>
-      </c>
-      <c r="J23" s="47">
-        <f>$O$28*B23+$P$28</f>
-        <v>1.4255677979798</v>
-      </c>
-      <c r="K23" s="38">
-        <f>H23-J23</f>
-        <v>1.2832646464644437E-2</v>
+        <v>2.6909132995164415E-2</v>
+      </c>
+      <c r="N23" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="94">
+        <f t="array" ref="O23:P25">LINEST(S4:S14,R4:R14,1,1)</f>
+        <v>4.1356517676767783</v>
+      </c>
+      <c r="P23" s="94">
+        <v>6.9565286313073571E-3</v>
+      </c>
+      <c r="Q23" s="65" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="14">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="46"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="4">
         <v>2</v>
       </c>
       <c r="D24" s="30">
         <v>12.25</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="30">
         <f t="shared" si="0"/>
         <v>1.2250000000000001</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="39"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="60"/>
+      <c r="N24" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="2">
+        <v>7.2256446441988309E-2</v>
+      </c>
+      <c r="P24" s="2">
+        <v>3.1903158009086011E-2</v>
+      </c>
+      <c r="Q24" s="66" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="60"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="24">
+    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="47"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="11">
         <v>3</v>
       </c>
       <c r="D25" s="31">
         <v>11.78</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="31">
         <f t="shared" si="0"/>
         <v>1.1779999999999999</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="40"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="61"/>
+      <c r="N25" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.99726021630903305</v>
+      </c>
+      <c r="P25" s="2">
+        <v>3.0313280146275913E-2</v>
+      </c>
+      <c r="Q25" s="66" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="56">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="45">
         <v>0.28000000000000103</v>
       </c>
-      <c r="B26" s="44">
-        <f>A26+$B$36</f>
+      <c r="B26" s="53">
+        <f>A26+$B$37</f>
         <v>0.30302000000000101</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="8">
         <v>1</v>
       </c>
       <c r="D26" s="29">
         <v>11.18</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="29">
         <f t="shared" si="0"/>
         <v>1.1179999999999999</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="56">
         <f>AVERAGE(E26:E28)</f>
         <v>1.1126666666666667</v>
       </c>
-      <c r="G26" s="47">
-        <f>SQRT((F26-E26)^2+(F26-E27)^2+(F26-E28)^2)</f>
-        <v>1.6872067646458332E-2</v>
-      </c>
-      <c r="H26" s="47">
+      <c r="G26" s="56">
+        <f t="shared" ref="G26" si="9">_xlfn.STDEV.P(E26:E28)/SQRT(3)</f>
+        <v>5.6240225488194441E-3</v>
+      </c>
+      <c r="H26" s="56">
         <f>F26^2</f>
         <v>1.2380271111111112</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="59">
         <f>2*F26*G26</f>
-        <v>3.7545974535918611E-2</v>
-      </c>
-      <c r="J26" s="47">
-        <f>$O$28*B26+$P$28</f>
-        <v>1.2601417272727289</v>
-      </c>
-      <c r="K26" s="38">
-        <f>H26-J26</f>
-        <v>-2.2114616161617695E-2</v>
+        <v>1.2515324845306203E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="59"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="13">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="3">
         <v>2</v>
       </c>
       <c r="D27" s="30">
         <v>11.21</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="30">
         <f t="shared" si="0"/>
         <v>1.121</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="39"/>
-      <c r="N27" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="60"/>
     </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="60"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="22">
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="47"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="9">
         <v>3</v>
       </c>
       <c r="D28" s="31">
         <v>10.99</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="31">
         <f t="shared" si="0"/>
         <v>1.099</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="40"/>
-      <c r="N28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O28" s="7">
-        <f t="array" ref="O28:P30">LINEST(O33:O43,N33:N43,1,1)</f>
-        <v>4.1356517676767783</v>
-      </c>
-      <c r="P28" s="9">
-        <v>6.9565286313073571E-3</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="61"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="56">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="45">
         <v>0.24000000000000099</v>
       </c>
-      <c r="B29" s="44">
-        <f>A29+$B$36</f>
+      <c r="B29" s="53">
+        <f>A29+$B$37</f>
         <v>0.26302000000000098</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="10">
         <v>1</v>
       </c>
       <c r="D29" s="29">
         <v>10.5</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="29">
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="56">
         <f>AVERAGE(E29:E31)</f>
         <v>1.0446666666666669</v>
       </c>
-      <c r="G29" s="47">
-        <f>SQRT((F29-E29)^2+(F29-E30)^2+(F29-E31)^2)</f>
-        <v>1.3063945294843629E-2</v>
-      </c>
-      <c r="H29" s="47">
+      <c r="G29" s="56">
+        <f t="shared" ref="G29" si="10">_xlfn.STDEV.P(E29:E31)/SQRT(3)</f>
+        <v>4.3546484316145427E-3</v>
+      </c>
+      <c r="H29" s="56">
         <f>F29^2</f>
         <v>1.0913284444444449</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I29" s="59">
         <f>2*F29*G29</f>
-        <v>2.7294936369359962E-2</v>
-      </c>
-      <c r="J29" s="47">
-        <f>$O$28*B29+$P$28</f>
-        <v>1.0947156565656577</v>
-      </c>
-      <c r="K29" s="38">
-        <f>H29-J29</f>
-        <v>-3.3872121212128459E-3</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O29" s="3">
-        <v>7.2256446441988309E-2</v>
-      </c>
-      <c r="P29" s="4">
-        <v>3.1903158009086011E-2</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>13</v>
+        <v>9.0983121231199855E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="57"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="14">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="48"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="4">
         <v>2</v>
       </c>
       <c r="D30" s="30">
         <v>10.34</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="30">
         <f t="shared" si="0"/>
         <v>1.034</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="39"/>
-      <c r="N30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O30" s="6">
-        <v>0.99726021630903305</v>
-      </c>
-      <c r="P30" s="3">
-        <v>3.0313280146275913E-2</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="60"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="58"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="24">
+    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="11">
         <v>3</v>
       </c>
       <c r="D31" s="31">
         <v>10.5</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="31">
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="40"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="61"/>
+      <c r="O31" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="18">
+        <f>4*(PI())^2/O23</f>
+        <v>9.5458756737960595</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="56">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="45">
         <v>0.20000000000000101</v>
       </c>
-      <c r="B32" s="44">
-        <f>A32+$B$36</f>
+      <c r="B32" s="53">
+        <f>A32+$B$37</f>
         <v>0.223020000000001</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="8">
         <v>1</v>
       </c>
       <c r="D32" s="29">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="29">
         <f t="shared" si="0"/>
         <v>0.98000000000000009</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="56">
         <f>AVERAGE(E32:E34)</f>
         <v>0.96866666666666668</v>
       </c>
-      <c r="G32" s="47">
-        <f>SQRT((F32-E32)^2+(F32-E33)^2+(F32-E34)^2)</f>
-        <v>2.8994252303976963E-2</v>
-      </c>
-      <c r="H32" s="47">
+      <c r="G32" s="56">
+        <f t="shared" ref="G32" si="11">_xlfn.STDEV.P(E32:E34)/SQRT(3)</f>
+        <v>9.6647507679923205E-3</v>
+      </c>
+      <c r="H32" s="56">
         <f>F32^2</f>
         <v>0.9383151111111111</v>
       </c>
-      <c r="I32" s="47">
+      <c r="I32" s="59">
         <f>2*F32*G32</f>
-        <v>5.6171531463571372E-2</v>
-      </c>
-      <c r="J32" s="47">
-        <f>$O$28*B32+$P$28</f>
-        <v>0.92928958585858656</v>
-      </c>
-      <c r="K32" s="38">
-        <f>H32-J32</f>
-        <v>9.0255252525245355E-3</v>
-      </c>
-      <c r="N32" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q32" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="R32" s="73" t="s">
-        <v>34</v>
+        <v>1.8723843821190456E-2</v>
+      </c>
+      <c r="O32" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="18">
+        <f>4*(PI())^2/(O23^2)*O24</f>
+        <v>0.16678170530614936</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="13">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="46"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="3">
         <v>2</v>
       </c>
       <c r="D33" s="30">
         <v>9.4499999999999993</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="30">
         <f t="shared" si="0"/>
         <v>0.94499999999999995</v>
       </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="39"/>
-      <c r="N33" s="74">
-        <f>B2</f>
-        <v>0.62302000000000002</v>
-      </c>
-      <c r="O33" s="72">
-        <f>H2</f>
-        <v>2.616845444444444</v>
-      </c>
-      <c r="P33" s="72">
-        <f>J2</f>
-        <v>2.5835502929292939</v>
-      </c>
-      <c r="Q33" s="72">
-        <f>P33+$P$30</f>
-        <v>2.6138635730755699</v>
-      </c>
-      <c r="R33" s="72">
-        <f>P33-$P$30</f>
-        <v>2.553237012783018</v>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="60"/>
+      <c r="O33" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="22">
+        <f>ABS(P31-9.807)/9.807</f>
+        <v>2.6626320608131016E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="60"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="22">
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="47"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="9">
         <v>3</v>
       </c>
       <c r="D34" s="31">
         <v>9.81</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="31">
         <f t="shared" si="0"/>
         <v>0.98100000000000009</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="40"/>
-      <c r="N34" s="74">
-        <f>B5</f>
-        <v>0.58302000000000009</v>
-      </c>
-      <c r="O34" s="72">
-        <f>H5</f>
-        <v>2.4004337777777773</v>
-      </c>
-      <c r="P34" s="72">
-        <f>J5</f>
-        <v>2.418124222222223</v>
-      </c>
-      <c r="Q34" s="72">
-        <f t="shared" ref="Q34:Q43" si="1">P34+$P$30</f>
-        <v>2.448437502368499</v>
-      </c>
-      <c r="R34" s="72">
-        <f t="shared" ref="R34:R43" si="2">P34-$P$30</f>
-        <v>2.387810942075947</v>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="61"/>
+      <c r="O34" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" s="22">
+        <f>P32/P31</f>
+        <v>1.7471598311716345E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N35" s="74">
-        <f>B8</f>
-        <v>0.54302000000000006</v>
-      </c>
-      <c r="O35" s="72">
-        <f>H8</f>
-        <v>2.275069444444445</v>
-      </c>
-      <c r="P35" s="72">
-        <f>J8</f>
-        <v>2.2526981515151516</v>
-      </c>
-      <c r="Q35" s="72">
-        <f t="shared" si="1"/>
-        <v>2.2830114316614276</v>
-      </c>
-      <c r="R35" s="72">
-        <f t="shared" si="2"/>
-        <v>2.2223848713688756</v>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="20">
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="17">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="66">
-        <v>2.3019999999999999E-2</v>
-      </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="63">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="N36" s="74">
-        <f>B11</f>
-        <v>0.50302000000000002</v>
-      </c>
-      <c r="O36" s="72">
-        <f>H11</f>
-        <v>2.0382321111111104</v>
-      </c>
-      <c r="P36" s="72">
-        <f>J11</f>
-        <v>2.0872720808080807</v>
-      </c>
-      <c r="Q36" s="72">
-        <f t="shared" si="1"/>
-        <v>2.1175853609543567</v>
-      </c>
-      <c r="R36" s="72">
-        <f t="shared" si="2"/>
-        <v>2.0569588006618047</v>
-      </c>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="20">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="62">
+        <f>SQRT(D37^2+B38^2)</f>
+        <v>5.0039984012787211E-4</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="J38" s="16"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="66">
-        <f>SQRT(E36^2+B37^2)</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="N37" s="74">
-        <f>B14</f>
-        <v>0.46301999999999999</v>
-      </c>
-      <c r="O37" s="72">
-        <f>H14</f>
-        <v>1.8979654444444443</v>
-      </c>
-      <c r="P37" s="72">
-        <f>J14</f>
-        <v>1.9218460101010093</v>
-      </c>
-      <c r="Q37" s="72">
-        <f t="shared" si="1"/>
-        <v>1.9521592902472853</v>
-      </c>
-      <c r="R37" s="72">
-        <f t="shared" si="2"/>
-        <v>1.8915327299547333</v>
-      </c>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="J38" s="62"/>
-      <c r="N38" s="74">
-        <f>B17</f>
-        <v>0.42302000000000001</v>
-      </c>
-      <c r="O38" s="72">
-        <f>H17</f>
-        <v>1.7450409999999998</v>
-      </c>
-      <c r="P38" s="72">
-        <f>J17</f>
-        <v>1.7564199393939381</v>
-      </c>
-      <c r="Q38" s="72">
-        <f t="shared" si="1"/>
-        <v>1.7867332195402141</v>
-      </c>
-      <c r="R38" s="72">
-        <f t="shared" si="2"/>
-        <v>1.7261066592476622</v>
-      </c>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="64">
-        <f>4*(PI())^2/O28</f>
-        <v>9.5458756737960595</v>
-      </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="N39" s="74">
-        <f>B20</f>
-        <v>0.38301999999999997</v>
-      </c>
-      <c r="O39" s="72">
-        <f>H20</f>
-        <v>1.6409610000000003</v>
-      </c>
-      <c r="P39" s="72">
-        <f>J20</f>
-        <v>1.590993868686867</v>
-      </c>
-      <c r="Q39" s="72">
-        <f t="shared" si="1"/>
-        <v>1.621307148833143</v>
-      </c>
-      <c r="R39" s="72">
-        <f t="shared" si="2"/>
-        <v>1.560680588540591</v>
-      </c>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="64">
-        <f>4*(PI())^2/(O28^2)*O29</f>
-        <v>0.16678170530614936</v>
-      </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="N40" s="74">
-        <f>B23</f>
-        <v>0.34302000000000099</v>
-      </c>
-      <c r="O40" s="72">
-        <f>H23</f>
-        <v>1.4384004444444445</v>
-      </c>
-      <c r="P40" s="72">
-        <f>J23</f>
-        <v>1.4255677979798</v>
-      </c>
-      <c r="Q40" s="72">
-        <f t="shared" si="1"/>
-        <v>1.455881078126076</v>
-      </c>
-      <c r="R40" s="72">
-        <f t="shared" si="2"/>
-        <v>1.3952545178335241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="68">
-        <f>ABS(B39-9.807)/9.807</f>
-        <v>2.6626320608131016E-2</v>
-      </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="N41" s="74">
-        <f>B26</f>
-        <v>0.30302000000000101</v>
-      </c>
-      <c r="O41" s="72">
-        <f>H26</f>
-        <v>1.2380271111111112</v>
-      </c>
-      <c r="P41" s="72">
-        <f>J26</f>
-        <v>1.2601417272727289</v>
-      </c>
-      <c r="Q41" s="72">
-        <f t="shared" si="1"/>
-        <v>1.2904550074190049</v>
-      </c>
-      <c r="R41" s="72">
-        <f t="shared" si="2"/>
-        <v>1.2298284471264529</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N42" s="74">
-        <f>B29</f>
-        <v>0.26302000000000098</v>
-      </c>
-      <c r="O42" s="72">
-        <f>H29</f>
-        <v>1.0913284444444449</v>
-      </c>
-      <c r="P42" s="72">
-        <f>J29</f>
-        <v>1.0947156565656577</v>
-      </c>
-      <c r="Q42" s="72">
-        <f t="shared" si="1"/>
-        <v>1.1250289367119337</v>
-      </c>
-      <c r="R42" s="72">
-        <f t="shared" si="2"/>
-        <v>1.0644023764193817</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N43" s="74">
-        <f>B32</f>
-        <v>0.223020000000001</v>
-      </c>
-      <c r="O43" s="72">
-        <f>H32</f>
-        <v>0.9383151111111111</v>
-      </c>
-      <c r="P43" s="72">
-        <f>J32</f>
-        <v>0.92928958585858656</v>
-      </c>
-      <c r="Q43" s="72">
-        <f t="shared" si="1"/>
-        <v>0.95960286600486244</v>
-      </c>
-      <c r="R43" s="72">
-        <f t="shared" si="2"/>
-        <v>0.89897630571231069</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N44" s="61"/>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N44" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="N27:Q27"/>
+  <mergeCells count="67">
+    <mergeCell ref="N22:Q22"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I32:I34"/>
@@ -7313,54 +9429,32 @@
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J25"/>
     <mergeCell ref="H17:H19"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="H8:H10"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J16"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G2:G4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G20:G22"/>
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G20:G22"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="H23:H25"/>
@@ -7372,12 +9466,12 @@
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
@@ -7391,8 +9485,8 @@
     <mergeCell ref="A14:A16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.11811023622047244" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>